--- a/IMMS/DEC-2022 AYAH BILL/DEC-2022 AYAH HONORARIUM BILL.xlsx
+++ b/IMMS/DEC-2022 AYAH BILL/DEC-2022 AYAH HONORARIUM BILL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\IMMS\DEC-2022 AYAH BILL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC04D2F-9E97-422D-8C14-0B1BB2B1B962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4144C2-F519-4FA0-8AC5-F8B4DF71356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0F8DC732-1570-44AF-B20F-E7C295D04642}"/>
   </bookViews>
@@ -9330,8 +9330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A65B180-839D-4152-91AA-82E922F5B851}">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IMMS/DEC-2022 AYAH BILL/DEC-2022 AYAH HONORARIUM BILL.xlsx
+++ b/IMMS/DEC-2022 AYAH BILL/DEC-2022 AYAH HONORARIUM BILL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\IMMS\DEC-2022 AYAH BILL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4144C2-F519-4FA0-8AC5-F8B4DF71356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5358FC-AF04-451B-98B6-17BEA6891BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0F8DC732-1570-44AF-B20F-E7C295D04642}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ARREAR BILL'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BILL!$A$2:$O$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BILL!$A$2:$O$150</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ERRORS!$A$1:$N$141</definedName>
     <definedName name="ERRORS">ERRORS!$D$1:$N$141</definedName>
     <definedName name="ERRORSDATA">ERRORS!$A$1:$N$141</definedName>
@@ -9328,10 +9328,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A65B180-839D-4152-91AA-82E922F5B851}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130:E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9418,7 +9419,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -9466,7 +9467,7 @@
         <v>754998300641</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>472103939954</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -9562,7 +9563,7 @@
         <v>739336895570</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -9610,7 +9611,7 @@
         <v>285180666952</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -9658,7 +9659,7 @@
         <v>319345775041</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -9706,7 +9707,7 @@
         <v>442885537107</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -9754,7 +9755,7 @@
         <v>888924911080</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -9802,7 +9803,7 @@
         <v>614803134365</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -9850,7 +9851,7 @@
         <v>788536945950</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -9898,7 +9899,7 @@
         <v>566940015515</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -9946,7 +9947,7 @@
         <v>376842579191</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>407844135513</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -10042,7 +10043,7 @@
         <v>543276071504</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -10090,7 +10091,7 @@
         <v>225030405935</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -10138,7 +10139,7 @@
         <v>583868924814</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>909904943836</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -10234,7 +10235,7 @@
         <v>993701388485</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -10282,7 +10283,7 @@
         <v>661124379030</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -10330,7 +10331,7 @@
         <v>236756172443</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -10378,7 +10379,7 @@
         <v>488093234439</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -10426,7 +10427,7 @@
         <v>620647569933</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -10474,7 +10475,7 @@
         <v>370824286593</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -10522,7 +10523,7 @@
         <v>291684757344</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -10570,7 +10571,7 @@
         <v>230141169819</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -10618,7 +10619,7 @@
         <v>774067408071</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -10666,7 +10667,7 @@
         <v>283720375480</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -10714,7 +10715,7 @@
         <v>554976846658</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>229690426717</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -10810,7 +10811,7 @@
         <v>768570506972</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -10858,7 +10859,7 @@
         <v>654758091878</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -10906,7 +10907,7 @@
         <v>359529215428</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -10954,7 +10955,7 @@
         <v>351908359500</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -11002,7 +11003,7 @@
         <v>964741881488</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -11050,7 +11051,7 @@
         <v>538057356200</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>870251250463</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -11146,7 +11147,7 @@
         <v>774610096857</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -11194,7 +11195,7 @@
         <v>253730133811</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -11242,7 +11243,7 @@
         <v>661289099527</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -11290,7 +11291,7 @@
         <v>592585874241</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -11338,7 +11339,7 @@
         <v>449591946737</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -11386,7 +11387,7 @@
         <v>740191042506</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -11434,7 +11435,7 @@
         <v>750307564055</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -11482,7 +11483,7 @@
         <v>750298161470</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -11530,7 +11531,7 @@
         <v>889723092493</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -11578,7 +11579,7 @@
         <v>205681942750</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -11626,7 +11627,7 @@
         <v>882028029663</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -11674,7 +11675,7 @@
         <v>439127335637</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -11722,7 +11723,7 @@
         <v>607825450371</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -11770,7 +11771,7 @@
         <v>539077067546</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -11818,7 +11819,7 @@
         <v>983896883688</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>848052734388</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -11914,7 +11915,7 @@
         <v>499726099029</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -11962,7 +11963,7 @@
         <v>663202767173</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -12010,7 +12011,7 @@
         <v>424835837518</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -12058,7 +12059,7 @@
         <v>582920150041</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -12106,7 +12107,7 @@
         <v>973953035501</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -12154,7 +12155,7 @@
         <v>618208023135</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -12202,7 +12203,7 @@
         <v>349536720729</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -12250,7 +12251,7 @@
         <v>454650300040</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -12298,7 +12299,7 @@
         <v>616729758448</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -12346,7 +12347,7 @@
         <v>563982431193</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -12394,7 +12395,7 @@
         <v>837692453921</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -12442,7 +12443,7 @@
         <v>624111324456</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -12490,7 +12491,7 @@
         <v>773815096603</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -12538,7 +12539,7 @@
         <v>715192650411</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -12586,7 +12587,7 @@
         <v>818142580781</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -12634,7 +12635,7 @@
         <v>275589293273</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -12682,7 +12683,7 @@
         <v>827618417322</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -12730,7 +12731,7 @@
         <v>927721987539</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>974039064825</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -12826,7 +12827,7 @@
         <v>406335086806</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -12874,7 +12875,7 @@
         <v>297693979083</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -12922,7 +12923,7 @@
         <v>883086932978</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -12970,7 +12971,7 @@
         <v>906055043159</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -13018,7 +13019,7 @@
         <v>974051827131</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -13066,7 +13067,7 @@
         <v>271154081095</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -13114,7 +13115,7 @@
         <v>833297332921</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -13162,7 +13163,7 @@
         <v>877282704506</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -13210,7 +13211,7 @@
         <v>413404552323</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -13258,7 +13259,7 @@
         <v>916649360386</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -13306,7 +13307,7 @@
         <v>335286182163</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -13354,7 +13355,7 @@
         <v>350551622981</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -13402,7 +13403,7 @@
         <v>215357605834</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -13450,7 +13451,7 @@
         <v>902436937841</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -13498,7 +13499,7 @@
         <v>445843337521</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -13546,7 +13547,7 @@
         <v>235845258130</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -13594,7 +13595,7 @@
         <v>315267079526</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -13642,7 +13643,7 @@
         <v>422461249521</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -13690,7 +13691,7 @@
         <v>390283644668</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -13738,7 +13739,7 @@
         <v>302576192814</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -13786,7 +13787,7 @@
         <v>883137428067</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -13834,7 +13835,7 @@
         <v>807580527370</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>93</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>452217273745</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>94</v>
       </c>
@@ -13930,7 +13931,7 @@
         <v>996878057281</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>95</v>
       </c>
@@ -13978,7 +13979,7 @@
         <v>331130604081</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -14026,7 +14027,7 @@
         <v>355130957846</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>97</v>
       </c>
@@ -14074,7 +14075,7 @@
         <v>371594699273</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>98</v>
       </c>
@@ -14122,7 +14123,7 @@
         <v>507523171285</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>99</v>
       </c>
@@ -14170,7 +14171,7 @@
         <v>313465240782</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>100</v>
       </c>
@@ -14218,7 +14219,7 @@
         <v>542667075180</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>101</v>
       </c>
@@ -14266,7 +14267,7 @@
         <v>225652939478</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>102</v>
       </c>
@@ -14314,7 +14315,7 @@
         <v>615998938105</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>103</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>844580402365</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>104</v>
       </c>
@@ -14410,7 +14411,7 @@
         <v>372343053495</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>105</v>
       </c>
@@ -14458,7 +14459,7 @@
         <v>516572167795</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>106</v>
       </c>
@@ -14506,7 +14507,7 @@
         <v>670851065798</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>107</v>
       </c>
@@ -14554,7 +14555,7 @@
         <v>318113250246</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>108</v>
       </c>
@@ -14602,7 +14603,7 @@
         <v>804765142069</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>109</v>
       </c>
@@ -14650,7 +14651,7 @@
         <v>561733833655</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>110</v>
       </c>
@@ -14698,7 +14699,7 @@
         <v>718661702724</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>111</v>
       </c>
@@ -14746,7 +14747,7 @@
         <v>212536502189</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>112</v>
       </c>
@@ -14794,7 +14795,7 @@
         <v>598695298863</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>113</v>
       </c>
@@ -14842,7 +14843,7 @@
         <v>674060671317</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>114</v>
       </c>
@@ -14890,7 +14891,7 @@
         <v>889390305192</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>115</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>506530654587</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>116</v>
       </c>
@@ -14986,7 +14987,7 @@
         <v>666201117112</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>117</v>
       </c>
@@ -15034,7 +15035,7 @@
         <v>236464890736</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>118</v>
       </c>
@@ -15082,7 +15083,7 @@
         <v>411971416298</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>119</v>
       </c>
@@ -15130,7 +15131,7 @@
         <v>931959672777</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>120</v>
       </c>
@@ -15178,7 +15179,7 @@
         <v>481773323852</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>121</v>
       </c>
@@ -15226,7 +15227,7 @@
         <v>885949260750</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>122</v>
       </c>
@@ -15274,7 +15275,7 @@
         <v>851418001786</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>123</v>
       </c>
@@ -15322,7 +15323,7 @@
         <v>987906955840</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>124</v>
       </c>
@@ -15370,7 +15371,7 @@
         <v>546105939975</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>125</v>
       </c>
@@ -15418,7 +15419,7 @@
         <v>543512538036</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>126</v>
       </c>
@@ -15466,7 +15467,7 @@
         <v>885840396024</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>127</v>
       </c>
@@ -16185,7 +16186,7 @@
         <v>393651585434</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>142</v>
       </c>
@@ -16233,7 +16234,7 @@
         <v>702291476660</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>143</v>
       </c>
@@ -16281,7 +16282,7 @@
         <v>703694541597</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>144</v>
       </c>
@@ -16329,7 +16330,7 @@
         <v>719495862010</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>145</v>
       </c>
@@ -16377,7 +16378,7 @@
         <v>486325012716</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>146</v>
       </c>
@@ -16469,7 +16470,7 @@
       </c>
       <c r="O149" s="37"/>
     </row>
-    <row r="150" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -16511,7 +16512,13 @@
       <c r="O154" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O149" xr:uid="{1A65B180-839D-4152-91AA-82E922F5B851}"/>
+  <autoFilter ref="A2:O150" xr:uid="{1A65B180-839D-4152-91AA-82E922F5B851}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="TW ASHRAM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="L153:O153"/>

--- a/IMMS/DEC-2022 AYAH BILL/DEC-2022 AYAH HONORARIUM BILL.xlsx
+++ b/IMMS/DEC-2022 AYAH BILL/DEC-2022 AYAH HONORARIUM BILL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\IMMS\DEC-2022 AYAH BILL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5358FC-AF04-451B-98B6-17BEA6891BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B9273E-825E-4FB9-B8B8-3D71406F56F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0F8DC732-1570-44AF-B20F-E7C295D04642}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0F8DC732-1570-44AF-B20F-E7C295D04642}"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORS" sheetId="1" r:id="rId1"/>
@@ -2507,7 +2507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2637,6 +2637,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2652,6 +2662,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>169994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967D3A1A-FB8A-400D-9933-761447C8CAC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753601" y="2532194"/>
+          <a:ext cx="3095624" cy="1077780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9331,8 +9396,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130:E149"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16530,10 +16595,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EABAF6-5BBD-4244-919B-2E1B6D009B31}">
-  <dimension ref="A1:O13"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16929,59 +16997,129 @@
       <c r="O9" s="42"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="L11" s="44" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="L15" s="44" t="s">
         <v>766</v>
       </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="L12" s="45" t="s">
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="L16" s="45" t="s">
         <v>767</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:O1"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/IMMS/DEC-2022 AYAH BILL/DEC-2022 AYAH HONORARIUM BILL.xlsx
+++ b/IMMS/DEC-2022 AYAH BILL/DEC-2022 AYAH HONORARIUM BILL.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\IMMS\DEC-2022 AYAH BILL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79536B52-8063-4608-BDE4-5B3EF6C52148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE8886F-6103-4155-8364-0648BFEA74FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0F8DC732-1570-44AF-B20F-E7C295D04642}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F8DC732-1570-44AF-B20F-E7C295D04642}"/>
   </bookViews>
   <sheets>
-    <sheet name="ERRORS" sheetId="1" r:id="rId1"/>
-    <sheet name="BILL" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="ARREAR BILL" sheetId="5" r:id="rId4"/>
+    <sheet name="GLASS" sheetId="8" r:id="rId1"/>
+    <sheet name="ERRORS" sheetId="1" r:id="rId2"/>
+    <sheet name="BILL" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="ARREAR BILL" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ARREAR BILL'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BILL!$A$2:$W$150</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ERRORS!$A$1:$N$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'ARREAR BILL'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BILL!$A$2:$X$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ERRORS!$A$1:$N$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GLASS!$A$2:$C$158</definedName>
     <definedName name="ERRORS">ERRORS!$D$1:$N$141</definedName>
     <definedName name="ERRORSDATA">ERRORS!$A$1:$N$141</definedName>
+    <definedName name="roll">Sheet2!$A$4:$C$175</definedName>
     <definedName name="schook">Sheet1!$C$1:$D$180</definedName>
-    <definedName name="USERID">BILL!$V$3:$W$179</definedName>
+    <definedName name="USERID" localSheetId="0">GLASS!#REF!</definedName>
+    <definedName name="USERID">BILL!$W$3:$X$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="898">
   <si>
     <t>MANYAM</t>
   </si>
@@ -2440,6 +2445,306 @@
   </si>
   <si>
     <t>GTW ASHRAM SCHOOL(GIRLS)  P. AMITY</t>
+  </si>
+  <si>
+    <t>NAME OF THE SCHOOL</t>
+  </si>
+  <si>
+    <t>UDISE</t>
+  </si>
+  <si>
+    <t>SCHOOL NAME</t>
+  </si>
+  <si>
+    <t>GPS THOTA</t>
+  </si>
+  <si>
+    <t>GPSTW JAPAI</t>
+  </si>
+  <si>
+    <t>GPSTW TIKKABAI</t>
+  </si>
+  <si>
+    <t>GPSTW ITCHAPURAM</t>
+  </si>
+  <si>
+    <t>GPSTW GUNADA</t>
+  </si>
+  <si>
+    <t>GPSTW SEEMALAGUDA</t>
+  </si>
+  <si>
+    <t>GPSTW KEDARIPURAM COL</t>
+  </si>
+  <si>
+    <t>GPSTW CHINTAMANUGUDA</t>
+  </si>
+  <si>
+    <t>GPSTW KUMBAYAGUDA</t>
+  </si>
+  <si>
+    <t>GPSTW NONDRUKONA</t>
+  </si>
+  <si>
+    <t>GPSTW NIGARAM</t>
+  </si>
+  <si>
+    <t>AIDED P S KUKKIDI</t>
+  </si>
+  <si>
+    <t>GPSTW CHINTAMANUGUD</t>
+  </si>
+  <si>
+    <t>GPS TW RUSHINI COLNY</t>
+  </si>
+  <si>
+    <t>GPSTW CHAPPAGUDA</t>
+  </si>
+  <si>
+    <t>GPSTW CH J BHADRA</t>
+  </si>
+  <si>
+    <t>GPSTW SIKHARAPAI</t>
+  </si>
+  <si>
+    <t>AIDED PS TADIKONDA</t>
+  </si>
+  <si>
+    <t>GTWAS TADIKONDA</t>
+  </si>
+  <si>
+    <t>GPSTW PEDDAGUDA</t>
+  </si>
+  <si>
+    <t>GPSTW SIKALABHAI</t>
+  </si>
+  <si>
+    <t>GPSTW DERUGONDA</t>
+  </si>
+  <si>
+    <t>MPPS KANNAYYAGUDA</t>
+  </si>
+  <si>
+    <t>GPS TW GAJULAGUDA</t>
+  </si>
+  <si>
+    <t>GPS THOLUKHARJA</t>
+  </si>
+  <si>
+    <t>AIDED PS LUMBESU</t>
+  </si>
+  <si>
+    <t>GPSTW LAPPITI</t>
+  </si>
+  <si>
+    <t>MPPS VONDRUBHANGI</t>
+  </si>
+  <si>
+    <t>GPSTW KESARIGUDA</t>
+  </si>
+  <si>
+    <t>MPPS IJJAKAI</t>
+  </si>
+  <si>
+    <t>GPS VADAJANGI</t>
+  </si>
+  <si>
+    <t>GPS TW KITHALAMBA</t>
+  </si>
+  <si>
+    <t>MPPS RAYAGADAJAMMU</t>
+  </si>
+  <si>
+    <t>GPSTW MULAJAMMU</t>
+  </si>
+  <si>
+    <t>APTWREIS EKALAVYA MDEL RESIDENTIAL SCHOOL</t>
+  </si>
+  <si>
+    <t>GPSTW THAMBAMGUDA</t>
+  </si>
+  <si>
+    <t>GPSTW PILLIGUDA</t>
+  </si>
+  <si>
+    <t>GPSTW S KALIGOTTU</t>
+  </si>
+  <si>
+    <t>GPSTW REGULAPADU</t>
+  </si>
+  <si>
+    <t>GPSTW KOSAGUDA</t>
+  </si>
+  <si>
+    <t>APTWRSGIRLS BHADRAGIRI</t>
+  </si>
+  <si>
+    <t>MPPS GADDI COL GLPURAM</t>
+  </si>
+  <si>
+    <t>AIDED ES CHINATALAGUDA ST</t>
+  </si>
+  <si>
+    <t>GPSTW PULIGUDA</t>
+  </si>
+  <si>
+    <t>GPS TW MORAMMAGUDA</t>
+  </si>
+  <si>
+    <t>GPSTW KUDDA</t>
+  </si>
+  <si>
+    <t>MPPS SAMBUGUDA</t>
+  </si>
+  <si>
+    <t>MPPS SEEMALAVALASA</t>
+  </si>
+  <si>
+    <t>MPPS JARNA</t>
+  </si>
+  <si>
+    <t>MPPS Y CHORUPALLI</t>
+  </si>
+  <si>
+    <t>GPSTW BABBIDI</t>
+  </si>
+  <si>
+    <t>MPPS BAYYADA</t>
+  </si>
+  <si>
+    <t>AIDED PS KARIVALASA</t>
+  </si>
+  <si>
+    <t>GTWASGIRLS P AMITI</t>
+  </si>
+  <si>
+    <t>GPSTW KUDDAPAVALASA</t>
+  </si>
+  <si>
+    <t>MPPS VANJARAPUGUDA</t>
+  </si>
+  <si>
+    <t>MPPS DIGUVADERUVADA</t>
+  </si>
+  <si>
+    <t>GPSTW VANAKABADI</t>
+  </si>
+  <si>
+    <t>GPSTW GEDRAJOLA</t>
+  </si>
+  <si>
+    <t>GPS TW VANDIDI</t>
+  </si>
+  <si>
+    <t>GPSTW DORAKIKKUVA</t>
+  </si>
+  <si>
+    <t>GTWAS DUDDUKHALLU</t>
+  </si>
+  <si>
+    <t>GPSTW KOTHAVALASA</t>
+  </si>
+  <si>
+    <t>GPSTW LOVA LAKSHMIPURAM</t>
+  </si>
+  <si>
+    <t>GPSTW MALLUGUDA</t>
+  </si>
+  <si>
+    <t>GTWAS TIKKABAI</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ROLL</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AIDED P S CHEMUDUGUDA</t>
+  </si>
+  <si>
+    <t>APTWRSBOYS BHADRAGIRI</t>
+  </si>
+  <si>
+    <t>GPSTW ADJ BHADRA</t>
+  </si>
+  <si>
+    <t>GPSTW BASANGI</t>
+  </si>
+  <si>
+    <t>GPSTW BATUGUDABA</t>
+  </si>
+  <si>
+    <t>GPSTW BODDIDI</t>
+  </si>
+  <si>
+    <t>GPSTW CHINARAVIKONA</t>
+  </si>
+  <si>
+    <t>GPSTW CHINAVANKADHARA</t>
+  </si>
+  <si>
+    <t>GPSTW CHORUPALLE</t>
+  </si>
+  <si>
+    <t>GPSTW DONGARAKIKKUVA</t>
+  </si>
+  <si>
+    <t>GPSTW GOWDUGUDA</t>
+  </si>
+  <si>
+    <t>GPSTW GULLALANKA</t>
+  </si>
+  <si>
+    <t>GPSTW KORATIGUDA</t>
+  </si>
+  <si>
+    <t>GPSTW KUSA</t>
+  </si>
+  <si>
+    <t>GPSTW P AMITI COL</t>
+  </si>
+  <si>
+    <t>GPSTW SANDHIGUDA</t>
+  </si>
+  <si>
+    <t>GPSTW SEEMALAVALASA</t>
+  </si>
+  <si>
+    <t>GPSTW VADABAI</t>
+  </si>
+  <si>
+    <t>GPSTW VADAPUTTI</t>
+  </si>
+  <si>
+    <t>GPSTW VAMASI</t>
+  </si>
+  <si>
+    <t>GPSTW Y TADI KONDA</t>
+  </si>
+  <si>
+    <t>GTWAHSGIRLS REGIDI</t>
+  </si>
+  <si>
+    <t>GTWAS BEERUPADU</t>
+  </si>
+  <si>
+    <t>GTWAS KEDARIPURAM COL</t>
+  </si>
+  <si>
+    <t>GTWAS KOTHAGUDA</t>
+  </si>
+  <si>
+    <t>NEW LIFE MISSION UP SCHOOL</t>
+  </si>
+  <si>
+    <t>SARASWATHI VIDYA NIKETAN</t>
   </si>
 </sst>
 </file>
@@ -2615,7 +2920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2767,6 +3072,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2774,6 +3082,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3145,12 +3456,2477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFC52B0-1120-4765-A073-35398D33B117}">
+  <dimension ref="A1:G158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>24070554</v>
+      </c>
+      <c r="C3" s="7">
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <v>28120207506</v>
+      </c>
+      <c r="G3">
+        <v>24070652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>24070556</v>
+      </c>
+      <c r="C4" s="7">
+        <v>57</v>
+      </c>
+      <c r="F4">
+        <v>28120207506</v>
+      </c>
+      <c r="G4">
+        <v>24070652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>24070563</v>
+      </c>
+      <c r="C5" s="7">
+        <v>97</v>
+      </c>
+      <c r="F5">
+        <v>28120207507</v>
+      </c>
+      <c r="G5">
+        <v>24070653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>24070568</v>
+      </c>
+      <c r="C6" s="7">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>28120207507</v>
+      </c>
+      <c r="G6">
+        <v>24070653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>24070574</v>
+      </c>
+      <c r="C7" s="7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>28120207003</v>
+      </c>
+      <c r="G7">
+        <v>24072899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>24070591</v>
+      </c>
+      <c r="C8" s="7">
+        <v>66</v>
+      </c>
+      <c r="F8">
+        <v>28120200701</v>
+      </c>
+      <c r="G8">
+        <v>24070554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>24070593</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>28120200901</v>
+      </c>
+      <c r="G9">
+        <v>24070556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>24070601</v>
+      </c>
+      <c r="C10" s="7">
+        <v>78</v>
+      </c>
+      <c r="F10">
+        <v>28120201204</v>
+      </c>
+      <c r="G10">
+        <v>24070563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>24070611</v>
+      </c>
+      <c r="C11" s="7">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>28120201501</v>
+      </c>
+      <c r="G11">
+        <v>24070568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>24070615</v>
+      </c>
+      <c r="C12" s="7">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>28120201801</v>
+      </c>
+      <c r="G12">
+        <v>24070574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>24070617</v>
+      </c>
+      <c r="C13" s="7">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>28120203001</v>
+      </c>
+      <c r="G13">
+        <v>24070591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>24070618</v>
+      </c>
+      <c r="C14" s="7">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>28120203201</v>
+      </c>
+      <c r="G14">
+        <v>24070593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>24070619</v>
+      </c>
+      <c r="C15" s="7">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>28120203601</v>
+      </c>
+      <c r="G15">
+        <v>24070601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>24070628</v>
+      </c>
+      <c r="C16" s="7">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>28120204601</v>
+      </c>
+      <c r="G16">
+        <v>24070611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>24070631</v>
+      </c>
+      <c r="C17" s="7">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>28120204801</v>
+      </c>
+      <c r="G17">
+        <v>24070615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>24070634</v>
+      </c>
+      <c r="C18" s="7">
+        <v>72</v>
+      </c>
+      <c r="F18">
+        <v>28120204902</v>
+      </c>
+      <c r="G18">
+        <v>24070617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>24070637</v>
+      </c>
+      <c r="C19" s="7">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>28120205001</v>
+      </c>
+      <c r="G19">
+        <v>24070618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <v>24070638</v>
+      </c>
+      <c r="C20" s="7">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>28120205201</v>
+      </c>
+      <c r="G20">
+        <v>24070619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>24070651</v>
+      </c>
+      <c r="C21" s="7">
+        <v>85</v>
+      </c>
+      <c r="F21">
+        <v>28120206101</v>
+      </c>
+      <c r="G21">
+        <v>24070628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
+        <v>24070655</v>
+      </c>
+      <c r="C22" s="7">
+        <v>41</v>
+      </c>
+      <c r="F22">
+        <v>28120206501</v>
+      </c>
+      <c r="G22">
+        <v>24070631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
+        <v>24070667</v>
+      </c>
+      <c r="C23" s="7">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>28120206901</v>
+      </c>
+      <c r="G23">
+        <v>24070634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7">
+        <v>24070674</v>
+      </c>
+      <c r="C24" s="7">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>28120207002</v>
+      </c>
+      <c r="G24">
+        <v>24070637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>24070681</v>
+      </c>
+      <c r="C25" s="7">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>28120207101</v>
+      </c>
+      <c r="G25">
+        <v>24070638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7">
+        <v>24070686</v>
+      </c>
+      <c r="C26" s="7">
+        <v>39</v>
+      </c>
+      <c r="F26">
+        <v>28120207505</v>
+      </c>
+      <c r="G26">
+        <v>24070651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>24070690</v>
+      </c>
+      <c r="C27" s="7">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>28120207602</v>
+      </c>
+      <c r="G27">
+        <v>24070655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7">
+        <v>24070705</v>
+      </c>
+      <c r="C28" s="7">
+        <v>110</v>
+      </c>
+      <c r="F28">
+        <v>28120208001</v>
+      </c>
+      <c r="G28">
+        <v>24070667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <v>24070714</v>
+      </c>
+      <c r="C29" s="7">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>28120208701</v>
+      </c>
+      <c r="G29">
+        <v>24070674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7">
+        <v>24070721</v>
+      </c>
+      <c r="C30" s="7">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>28120209101</v>
+      </c>
+      <c r="G30">
+        <v>24070681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7">
+        <v>24070727</v>
+      </c>
+      <c r="C31" s="7">
+        <v>37</v>
+      </c>
+      <c r="F31">
+        <v>28120209501</v>
+      </c>
+      <c r="G31">
+        <v>24070686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7">
+        <v>24070547</v>
+      </c>
+      <c r="C32" s="7">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <v>28120209901</v>
+      </c>
+      <c r="G32">
+        <v>24070690</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7">
+        <v>24070553</v>
+      </c>
+      <c r="C33" s="7">
+        <v>43</v>
+      </c>
+      <c r="F33">
+        <v>28120211001</v>
+      </c>
+      <c r="G33">
+        <v>24070705</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7">
+        <v>24070555</v>
+      </c>
+      <c r="C34" s="7">
+        <v>42</v>
+      </c>
+      <c r="F34">
+        <v>28120212001</v>
+      </c>
+      <c r="G34">
+        <v>24070714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>24070567</v>
+      </c>
+      <c r="C35" s="7">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <v>28120212203</v>
+      </c>
+      <c r="G35">
+        <v>24070721</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7">
+        <v>24070569</v>
+      </c>
+      <c r="C36" s="7">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>28120212303</v>
+      </c>
+      <c r="G36">
+        <v>24070727</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7">
+        <v>24070573</v>
+      </c>
+      <c r="C37" s="7">
+        <v>33</v>
+      </c>
+      <c r="F37">
+        <v>28120200104</v>
+      </c>
+      <c r="G37">
+        <v>24070547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7">
+        <v>24070590</v>
+      </c>
+      <c r="C38" s="7">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>28120200502</v>
+      </c>
+      <c r="G38">
+        <v>24070553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7">
+        <v>24070598</v>
+      </c>
+      <c r="C39" s="7">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>28120200801</v>
+      </c>
+      <c r="G39">
+        <v>24070555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>38</v>
+      </c>
+      <c r="B40" s="7">
+        <v>24070599</v>
+      </c>
+      <c r="C40" s="7">
+        <v>59</v>
+      </c>
+      <c r="F40">
+        <v>28120201401</v>
+      </c>
+      <c r="G40">
+        <v>24070567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7">
+        <v>24070602</v>
+      </c>
+      <c r="C41" s="7">
+        <v>42</v>
+      </c>
+      <c r="F41">
+        <v>28120201601</v>
+      </c>
+      <c r="G41">
+        <v>24070569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>40</v>
+      </c>
+      <c r="B42" s="7">
+        <v>24070604</v>
+      </c>
+      <c r="C42" s="7">
+        <v>73</v>
+      </c>
+      <c r="F42">
+        <v>28120201708</v>
+      </c>
+      <c r="G42">
+        <v>24070573</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7">
+        <v>24070613</v>
+      </c>
+      <c r="C43" s="7">
+        <v>52</v>
+      </c>
+      <c r="F43">
+        <v>28120202901</v>
+      </c>
+      <c r="G43">
+        <v>24070590</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7">
+        <v>24070616</v>
+      </c>
+      <c r="C44" s="7">
+        <v>59</v>
+      </c>
+      <c r="F44">
+        <v>28120203403</v>
+      </c>
+      <c r="G44">
+        <v>24070598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7">
+        <v>24070627</v>
+      </c>
+      <c r="C45" s="7">
+        <v>36</v>
+      </c>
+      <c r="F45">
+        <v>28120203501</v>
+      </c>
+      <c r="G45">
+        <v>24070599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>44</v>
+      </c>
+      <c r="B46" s="7">
+        <v>24070629</v>
+      </c>
+      <c r="C46" s="7">
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <v>28120203701</v>
+      </c>
+      <c r="G46">
+        <v>24070602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7">
+        <v>24070632</v>
+      </c>
+      <c r="C47" s="7">
+        <v>52</v>
+      </c>
+      <c r="F47">
+        <v>28120203801</v>
+      </c>
+      <c r="G47">
+        <v>24070604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>46</v>
+      </c>
+      <c r="B48" s="7">
+        <v>24070633</v>
+      </c>
+      <c r="C48" s="7">
+        <v>30</v>
+      </c>
+      <c r="F48">
+        <v>28120204701</v>
+      </c>
+      <c r="G48">
+        <v>24070613</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7">
+        <v>24070635</v>
+      </c>
+      <c r="C49" s="7">
+        <v>24</v>
+      </c>
+      <c r="F49">
+        <v>28120204901</v>
+      </c>
+      <c r="G49">
+        <v>24070616</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>48</v>
+      </c>
+      <c r="B50" s="7">
+        <v>24070636</v>
+      </c>
+      <c r="C50" s="7">
+        <v>41</v>
+      </c>
+      <c r="F50">
+        <v>28120206001</v>
+      </c>
+      <c r="G50">
+        <v>24070627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7">
+        <v>24070641</v>
+      </c>
+      <c r="C51" s="7">
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <v>28120206301</v>
+      </c>
+      <c r="G51">
+        <v>24070629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>50</v>
+      </c>
+      <c r="B52" s="7">
+        <v>24070642</v>
+      </c>
+      <c r="C52" s="7">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>28120206701</v>
+      </c>
+      <c r="G52">
+        <v>24070632</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7">
+        <v>24070644</v>
+      </c>
+      <c r="C53" s="7">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>28120206801</v>
+      </c>
+      <c r="G53">
+        <v>24070633</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>52</v>
+      </c>
+      <c r="B54" s="7">
+        <v>24070647</v>
+      </c>
+      <c r="C54" s="7">
+        <v>28</v>
+      </c>
+      <c r="F54">
+        <v>28120206903</v>
+      </c>
+      <c r="G54">
+        <v>24070635</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7">
+        <v>24070648</v>
+      </c>
+      <c r="C55" s="7">
+        <v>23</v>
+      </c>
+      <c r="F55">
+        <v>28120207001</v>
+      </c>
+      <c r="G55">
+        <v>24070636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>54</v>
+      </c>
+      <c r="B56" s="7">
+        <v>24070663</v>
+      </c>
+      <c r="C56" s="7">
+        <v>44</v>
+      </c>
+      <c r="F56">
+        <v>28120207201</v>
+      </c>
+      <c r="G56">
+        <v>24070641</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7">
+        <v>24070668</v>
+      </c>
+      <c r="C57" s="7">
+        <v>18</v>
+      </c>
+      <c r="F57">
+        <v>28120207202</v>
+      </c>
+      <c r="G57">
+        <v>24070642</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>56</v>
+      </c>
+      <c r="B58" s="7">
+        <v>24070671</v>
+      </c>
+      <c r="C58" s="7">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>28120207301</v>
+      </c>
+      <c r="G58">
+        <v>24070644</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7">
+        <v>24070675</v>
+      </c>
+      <c r="C59" s="7">
+        <v>36</v>
+      </c>
+      <c r="F59">
+        <v>28120207501</v>
+      </c>
+      <c r="G59">
+        <v>24070647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>58</v>
+      </c>
+      <c r="B60" s="7">
+        <v>24070679</v>
+      </c>
+      <c r="C60" s="7">
+        <v>32</v>
+      </c>
+      <c r="F60">
+        <v>28120207502</v>
+      </c>
+      <c r="G60">
+        <v>24070648</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7">
+        <v>24070691</v>
+      </c>
+      <c r="C61" s="7">
+        <v>49</v>
+      </c>
+      <c r="F61">
+        <v>28120207701</v>
+      </c>
+      <c r="G61">
+        <v>24070663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>60</v>
+      </c>
+      <c r="B62" s="7">
+        <v>24070697</v>
+      </c>
+      <c r="C62" s="7">
+        <v>27</v>
+      </c>
+      <c r="F62">
+        <v>28120208103</v>
+      </c>
+      <c r="G62">
+        <v>24070668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7">
+        <v>24070699</v>
+      </c>
+      <c r="C63" s="7">
+        <v>22</v>
+      </c>
+      <c r="F63">
+        <v>28120208401</v>
+      </c>
+      <c r="G63">
+        <v>24070671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>62</v>
+      </c>
+      <c r="B64" s="7">
+        <v>24070700</v>
+      </c>
+      <c r="C64" s="7">
+        <v>14</v>
+      </c>
+      <c r="F64">
+        <v>28120208801</v>
+      </c>
+      <c r="G64">
+        <v>24070675</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7">
+        <v>24070702</v>
+      </c>
+      <c r="C65" s="7">
+        <v>60</v>
+      </c>
+      <c r="F65">
+        <v>28120208901</v>
+      </c>
+      <c r="G65">
+        <v>24070679</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>64</v>
+      </c>
+      <c r="B66" s="7">
+        <v>24070703</v>
+      </c>
+      <c r="C66" s="7">
+        <v>88</v>
+      </c>
+      <c r="F66">
+        <v>28120210001</v>
+      </c>
+      <c r="G66">
+        <v>24070691</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7">
+        <v>24070711</v>
+      </c>
+      <c r="C67" s="7">
+        <v>25</v>
+      </c>
+      <c r="F67">
+        <v>28120210210</v>
+      </c>
+      <c r="G67">
+        <v>24070697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>66</v>
+      </c>
+      <c r="B68" s="7">
+        <v>24070712</v>
+      </c>
+      <c r="C68" s="7">
+        <v>15</v>
+      </c>
+      <c r="F68">
+        <v>28120210401</v>
+      </c>
+      <c r="G68">
+        <v>24070699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7">
+        <v>24070715</v>
+      </c>
+      <c r="C69" s="7">
+        <v>31</v>
+      </c>
+      <c r="F69">
+        <v>28120210501</v>
+      </c>
+      <c r="G69">
+        <v>24070700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>68</v>
+      </c>
+      <c r="B70" s="7">
+        <v>24070719</v>
+      </c>
+      <c r="C70" s="7">
+        <v>34</v>
+      </c>
+      <c r="F70">
+        <v>28120210601</v>
+      </c>
+      <c r="G70">
+        <v>24070702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7">
+        <v>24070720</v>
+      </c>
+      <c r="C71" s="7">
+        <v>32</v>
+      </c>
+      <c r="F71">
+        <v>28120210801</v>
+      </c>
+      <c r="G71">
+        <v>24070703</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>70</v>
+      </c>
+      <c r="B72" s="7">
+        <v>24070725</v>
+      </c>
+      <c r="C72" s="7">
+        <v>34</v>
+      </c>
+      <c r="F72">
+        <v>28120211701</v>
+      </c>
+      <c r="G72">
+        <v>24070711</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7">
+        <v>24070726</v>
+      </c>
+      <c r="C73" s="7">
+        <v>24</v>
+      </c>
+      <c r="F73">
+        <v>28120211801</v>
+      </c>
+      <c r="G73">
+        <v>24070712</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>72</v>
+      </c>
+      <c r="B74" s="7">
+        <v>24070728</v>
+      </c>
+      <c r="C74" s="7">
+        <v>34</v>
+      </c>
+      <c r="F74">
+        <v>28120212101</v>
+      </c>
+      <c r="G74">
+        <v>24070715</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7">
+        <v>24070687</v>
+      </c>
+      <c r="C75" s="7">
+        <v>20</v>
+      </c>
+      <c r="F75">
+        <v>28120212201</v>
+      </c>
+      <c r="G75">
+        <v>24070719</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>74</v>
+      </c>
+      <c r="B76" s="7">
+        <v>24070624</v>
+      </c>
+      <c r="C76" s="7">
+        <v>52</v>
+      </c>
+      <c r="F76">
+        <v>28120212202</v>
+      </c>
+      <c r="G76">
+        <v>24070720</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7">
+        <v>24070548</v>
+      </c>
+      <c r="C77" s="7">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>28120212301</v>
+      </c>
+      <c r="G77">
+        <v>24070725</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>76</v>
+      </c>
+      <c r="B78" s="7">
+        <v>24070552</v>
+      </c>
+      <c r="C78" s="7">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>28120212302</v>
+      </c>
+      <c r="G78">
+        <v>24070726</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7">
+        <v>24070557</v>
+      </c>
+      <c r="C79" s="7">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>28120212401</v>
+      </c>
+      <c r="G79">
+        <v>24070728</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>78</v>
+      </c>
+      <c r="B80" s="7">
+        <v>24070558</v>
+      </c>
+      <c r="C80" s="7">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>28120209602</v>
+      </c>
+      <c r="G80">
+        <v>24070687</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>79</v>
+      </c>
+      <c r="B81" s="7">
+        <v>24070559</v>
+      </c>
+      <c r="C81" s="7">
+        <v>7</v>
+      </c>
+      <c r="F81">
+        <v>28120205601</v>
+      </c>
+      <c r="G81">
+        <v>24070624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>80</v>
+      </c>
+      <c r="B82" s="7">
+        <v>24070560</v>
+      </c>
+      <c r="C82" s="7">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>28120200201</v>
+      </c>
+      <c r="G82">
+        <v>24070548</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7">
+        <v>24070561</v>
+      </c>
+      <c r="C83" s="7">
+        <v>18</v>
+      </c>
+      <c r="F83">
+        <v>28120200403</v>
+      </c>
+      <c r="G83">
+        <v>24070552</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>82</v>
+      </c>
+      <c r="B84" s="7">
+        <v>24070562</v>
+      </c>
+      <c r="C84" s="7">
+        <v>6</v>
+      </c>
+      <c r="F84">
+        <v>28120200903</v>
+      </c>
+      <c r="G84">
+        <v>24070557</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7">
+        <v>24070565</v>
+      </c>
+      <c r="C85" s="7">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>28120201101</v>
+      </c>
+      <c r="G85">
+        <v>24070558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>84</v>
+      </c>
+      <c r="B86" s="7">
+        <v>24070566</v>
+      </c>
+      <c r="C86" s="7">
+        <v>39</v>
+      </c>
+      <c r="F86">
+        <v>28120201102</v>
+      </c>
+      <c r="G86">
+        <v>24070559</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7">
+        <v>24070572</v>
+      </c>
+      <c r="C87" s="7">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>28120201201</v>
+      </c>
+      <c r="G87">
+        <v>24070560</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>86</v>
+      </c>
+      <c r="B88" s="7">
+        <v>24070576</v>
+      </c>
+      <c r="C88" s="7">
+        <v>21</v>
+      </c>
+      <c r="F88">
+        <v>28120201202</v>
+      </c>
+      <c r="G88">
+        <v>24070561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7">
+        <v>24070578</v>
+      </c>
+      <c r="C89" s="7">
+        <v>6</v>
+      </c>
+      <c r="F89">
+        <v>28120201203</v>
+      </c>
+      <c r="G89">
+        <v>24070562</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>88</v>
+      </c>
+      <c r="B90" s="7">
+        <v>24070579</v>
+      </c>
+      <c r="C90" s="7">
+        <v>28</v>
+      </c>
+      <c r="F90">
+        <v>28120201301</v>
+      </c>
+      <c r="G90">
+        <v>24070565</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>89</v>
+      </c>
+      <c r="B91" s="7">
+        <v>24070581</v>
+      </c>
+      <c r="C91" s="7">
+        <v>13</v>
+      </c>
+      <c r="F91">
+        <v>28120201302</v>
+      </c>
+      <c r="G91">
+        <v>24070566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>90</v>
+      </c>
+      <c r="B92" s="7">
+        <v>24070582</v>
+      </c>
+      <c r="C92" s="7">
+        <v>21</v>
+      </c>
+      <c r="F92">
+        <v>28120201702</v>
+      </c>
+      <c r="G92">
+        <v>24070572</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7">
+        <v>24070584</v>
+      </c>
+      <c r="C93" s="7">
+        <v>11</v>
+      </c>
+      <c r="F93">
+        <v>28120201901</v>
+      </c>
+      <c r="G93">
+        <v>24070576</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <v>92</v>
+      </c>
+      <c r="B94" s="7">
+        <v>24070586</v>
+      </c>
+      <c r="C94" s="7">
+        <v>9</v>
+      </c>
+      <c r="F94">
+        <v>28120202002</v>
+      </c>
+      <c r="G94">
+        <v>24070578</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>93</v>
+      </c>
+      <c r="B95" s="7">
+        <v>24070592</v>
+      </c>
+      <c r="C95" s="7">
+        <v>22</v>
+      </c>
+      <c r="F95">
+        <v>28120202003</v>
+      </c>
+      <c r="G95">
+        <v>24070579</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>94</v>
+      </c>
+      <c r="B96" s="7">
+        <v>24070594</v>
+      </c>
+      <c r="C96" s="7">
+        <v>15</v>
+      </c>
+      <c r="F96">
+        <v>28120202101</v>
+      </c>
+      <c r="G96">
+        <v>24070581</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <v>95</v>
+      </c>
+      <c r="B97" s="7">
+        <v>24070595</v>
+      </c>
+      <c r="C97" s="7">
+        <v>7</v>
+      </c>
+      <c r="F97">
+        <v>28120202201</v>
+      </c>
+      <c r="G97">
+        <v>24070582</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>96</v>
+      </c>
+      <c r="B98" s="7">
+        <v>24070600</v>
+      </c>
+      <c r="C98" s="7">
+        <v>21</v>
+      </c>
+      <c r="F98">
+        <v>28120202501</v>
+      </c>
+      <c r="G98">
+        <v>24070584</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>97</v>
+      </c>
+      <c r="B99" s="7">
+        <v>24070603</v>
+      </c>
+      <c r="C99" s="7">
+        <v>7</v>
+      </c>
+      <c r="F99">
+        <v>28120202701</v>
+      </c>
+      <c r="G99">
+        <v>24070586</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>98</v>
+      </c>
+      <c r="B100" s="7">
+        <v>24070606</v>
+      </c>
+      <c r="C100" s="7">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>28120203101</v>
+      </c>
+      <c r="G100">
+        <v>24070592</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>99</v>
+      </c>
+      <c r="B101" s="7">
+        <v>24070608</v>
+      </c>
+      <c r="C101" s="7">
+        <v>15</v>
+      </c>
+      <c r="F101">
+        <v>28120203301</v>
+      </c>
+      <c r="G101">
+        <v>24070594</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
+        <v>100</v>
+      </c>
+      <c r="B102" s="7">
+        <v>24070614</v>
+      </c>
+      <c r="C102" s="7">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>28120203302</v>
+      </c>
+      <c r="G102">
+        <v>24070595</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
+        <v>101</v>
+      </c>
+      <c r="B103" s="7">
+        <v>24070625</v>
+      </c>
+      <c r="C103" s="7">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>28120203502</v>
+      </c>
+      <c r="G103">
+        <v>24070600</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <v>102</v>
+      </c>
+      <c r="B104" s="7">
+        <v>24070626</v>
+      </c>
+      <c r="C104" s="7">
+        <v>17</v>
+      </c>
+      <c r="F104">
+        <v>28120203702</v>
+      </c>
+      <c r="G104">
+        <v>24070603</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <v>103</v>
+      </c>
+      <c r="B105" s="7">
+        <v>24070630</v>
+      </c>
+      <c r="C105" s="7">
+        <v>18</v>
+      </c>
+      <c r="F105">
+        <v>28120204001</v>
+      </c>
+      <c r="G105">
+        <v>24070606</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <v>104</v>
+      </c>
+      <c r="B106" s="7">
+        <v>24070640</v>
+      </c>
+      <c r="C106" s="7">
+        <v>11</v>
+      </c>
+      <c r="F106">
+        <v>28120204201</v>
+      </c>
+      <c r="G106">
+        <v>24070608</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <v>105</v>
+      </c>
+      <c r="B107" s="7">
+        <v>24070645</v>
+      </c>
+      <c r="C107" s="7">
+        <v>16</v>
+      </c>
+      <c r="F107">
+        <v>28120204702</v>
+      </c>
+      <c r="G107">
+        <v>24070614</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <v>106</v>
+      </c>
+      <c r="B108" s="7">
+        <v>24070646</v>
+      </c>
+      <c r="C108" s="7">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>28120205701</v>
+      </c>
+      <c r="G108">
+        <v>24070625</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
+        <v>107</v>
+      </c>
+      <c r="B109" s="7">
+        <v>24070650</v>
+      </c>
+      <c r="C109" s="7">
+        <v>9</v>
+      </c>
+      <c r="F109">
+        <v>28120205801</v>
+      </c>
+      <c r="G109">
+        <v>24070626</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
+        <v>108</v>
+      </c>
+      <c r="B110" s="7">
+        <v>24070664</v>
+      </c>
+      <c r="C110" s="7">
+        <v>8</v>
+      </c>
+      <c r="F110">
+        <v>28120206401</v>
+      </c>
+      <c r="G110">
+        <v>24070630</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
+        <v>109</v>
+      </c>
+      <c r="B111" s="7">
+        <v>24070665</v>
+      </c>
+      <c r="C111" s="7">
+        <v>17</v>
+      </c>
+      <c r="F111">
+        <v>28120207103</v>
+      </c>
+      <c r="G111">
+        <v>24070640</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="8">
+        <v>110</v>
+      </c>
+      <c r="B112" s="7">
+        <v>24070677</v>
+      </c>
+      <c r="C112" s="7">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <v>28120207302</v>
+      </c>
+      <c r="G112">
+        <v>24070645</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="8">
+        <v>111</v>
+      </c>
+      <c r="B113" s="7">
+        <v>24070684</v>
+      </c>
+      <c r="C113" s="7">
+        <v>18</v>
+      </c>
+      <c r="F113">
+        <v>28120207401</v>
+      </c>
+      <c r="G113">
+        <v>24070646</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="8">
+        <v>112</v>
+      </c>
+      <c r="B114" s="7">
+        <v>24070688</v>
+      </c>
+      <c r="C114" s="7">
+        <v>38</v>
+      </c>
+      <c r="F114">
+        <v>28120207504</v>
+      </c>
+      <c r="G114">
+        <v>24070650</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="8">
+        <v>113</v>
+      </c>
+      <c r="B115" s="7">
+        <v>24070695</v>
+      </c>
+      <c r="C115" s="7">
+        <v>20</v>
+      </c>
+      <c r="F115">
+        <v>28120207702</v>
+      </c>
+      <c r="G115">
+        <v>24070664</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="8">
+        <v>114</v>
+      </c>
+      <c r="B116" s="7">
+        <v>24070698</v>
+      </c>
+      <c r="C116" s="7">
+        <v>6</v>
+      </c>
+      <c r="F116">
+        <v>28120207703</v>
+      </c>
+      <c r="G116">
+        <v>24070665</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="8">
+        <v>115</v>
+      </c>
+      <c r="B117" s="7">
+        <v>24070707</v>
+      </c>
+      <c r="C117" s="7">
+        <v>57</v>
+      </c>
+      <c r="F117">
+        <v>28120208803</v>
+      </c>
+      <c r="G117">
+        <v>24070677</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="8">
+        <v>116</v>
+      </c>
+      <c r="B118" s="7">
+        <v>24070708</v>
+      </c>
+      <c r="C118" s="7">
+        <v>28</v>
+      </c>
+      <c r="F118">
+        <v>28120209302</v>
+      </c>
+      <c r="G118">
+        <v>24070684</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="8">
+        <v>117</v>
+      </c>
+      <c r="B119" s="7">
+        <v>24070710</v>
+      </c>
+      <c r="C119" s="7">
+        <v>11</v>
+      </c>
+      <c r="F119">
+        <v>28120209701</v>
+      </c>
+      <c r="G119">
+        <v>24070688</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="8">
+        <v>118</v>
+      </c>
+      <c r="B120" s="7">
+        <v>24070718</v>
+      </c>
+      <c r="C120" s="7">
+        <v>30</v>
+      </c>
+      <c r="F120">
+        <v>28120210203</v>
+      </c>
+      <c r="G120">
+        <v>24070695</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="8">
+        <v>119</v>
+      </c>
+      <c r="B121" s="7">
+        <v>24070723</v>
+      </c>
+      <c r="C121" s="7">
+        <v>15</v>
+      </c>
+      <c r="F121">
+        <v>28120210301</v>
+      </c>
+      <c r="G121">
+        <v>24070698</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="8">
+        <v>120</v>
+      </c>
+      <c r="B122" s="7">
+        <v>24070729</v>
+      </c>
+      <c r="C122" s="7">
+        <v>13</v>
+      </c>
+      <c r="F122">
+        <v>28120211301</v>
+      </c>
+      <c r="G122">
+        <v>24070707</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="8">
+        <v>121</v>
+      </c>
+      <c r="B123" s="7">
+        <v>24070588</v>
+      </c>
+      <c r="C123" s="7">
+        <v>14</v>
+      </c>
+      <c r="F123">
+        <v>28120211401</v>
+      </c>
+      <c r="G123">
+        <v>24070708</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="8">
+        <v>122</v>
+      </c>
+      <c r="B124" s="7">
+        <v>24070713</v>
+      </c>
+      <c r="C124" s="7">
+        <v>61</v>
+      </c>
+      <c r="F124">
+        <v>28120211601</v>
+      </c>
+      <c r="G124">
+        <v>24070710</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="8">
+        <v>123</v>
+      </c>
+      <c r="B125" s="7">
+        <v>24070657</v>
+      </c>
+      <c r="C125" s="7">
+        <v>263</v>
+      </c>
+      <c r="F125">
+        <v>28120212107</v>
+      </c>
+      <c r="G125">
+        <v>24070718</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="8">
+        <v>124</v>
+      </c>
+      <c r="B126" s="7">
+        <v>24070657</v>
+      </c>
+      <c r="C126" s="7">
+        <v>263</v>
+      </c>
+      <c r="F126">
+        <v>28120212205</v>
+      </c>
+      <c r="G126">
+        <v>24070723</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="8">
+        <v>125</v>
+      </c>
+      <c r="B127" s="7">
+        <v>24070716</v>
+      </c>
+      <c r="C127" s="7">
+        <v>9</v>
+      </c>
+      <c r="F127">
+        <v>28120212402</v>
+      </c>
+      <c r="G127">
+        <v>24070729</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="8">
+        <v>126</v>
+      </c>
+      <c r="B128" s="7">
+        <v>24070583</v>
+      </c>
+      <c r="C128" s="7">
+        <v>38</v>
+      </c>
+      <c r="F128">
+        <v>28120202802</v>
+      </c>
+      <c r="G128">
+        <v>24070588</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F129" s="27">
+        <v>28120211901</v>
+      </c>
+      <c r="G129" s="27">
+        <v>24070713</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C130" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F130">
+        <v>28120201205</v>
+      </c>
+      <c r="G130">
+        <v>24070564</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C131" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F131">
+        <v>28120201603</v>
+      </c>
+      <c r="G131">
+        <v>24070570</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C132" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F132">
+        <v>28120201803</v>
+      </c>
+      <c r="G132">
+        <v>24070575</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C133" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F133">
+        <v>28120201803</v>
+      </c>
+      <c r="G133">
+        <v>24070575</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C134" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F134">
+        <v>28120202803</v>
+      </c>
+      <c r="G134">
+        <v>24070589</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C135" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F135">
+        <v>28120207615</v>
+      </c>
+      <c r="G135">
+        <v>24070662</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C136" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F136">
+        <v>28120207615</v>
+      </c>
+      <c r="G136">
+        <v>24070662</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C137" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F137">
+        <v>28120210003</v>
+      </c>
+      <c r="G137">
+        <v>24070692</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C138" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F138">
+        <v>28120210804</v>
+      </c>
+      <c r="G138">
+        <v>24070704</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C139" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F139">
+        <v>28120210804</v>
+      </c>
+      <c r="G139">
+        <v>24070704</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C140" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F140">
+        <v>28120212104</v>
+      </c>
+      <c r="G140">
+        <v>24070717</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C141" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F141">
+        <v>28120212206</v>
+      </c>
+      <c r="G141">
+        <v>24070724</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C142" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F142">
+        <v>28120212403</v>
+      </c>
+      <c r="G142">
+        <v>24070730</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C143" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F143">
+        <v>28120212403</v>
+      </c>
+      <c r="G143">
+        <v>24070730</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C144" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F144">
+        <v>28120207604</v>
+      </c>
+      <c r="G144">
+        <v>24070657</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C145" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F145">
+        <v>28120207604</v>
+      </c>
+      <c r="G145">
+        <v>24070657</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C146" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F146">
+        <v>28120212103</v>
+      </c>
+      <c r="G146">
+        <v>24070716</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C147" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F147">
+        <v>28120207607</v>
+      </c>
+      <c r="G147">
+        <v>24070658</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C148" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F148">
+        <v>28120202401</v>
+      </c>
+      <c r="G148">
+        <v>24070583</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C149" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="F149">
+        <v>28120210205</v>
+      </c>
+      <c r="G149">
+        <v>24070696</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C150" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C151" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C152" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C153" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C154" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C155" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C156" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C157" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C158" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C158" xr:uid="{1A65B180-839D-4152-91AA-82E922F5B851}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0B39CD-7D75-434E-94C8-63CEB81F2930}">
   <dimension ref="A1:N141"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9521,13 +12297,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A65B180-839D-4152-91AA-82E922F5B851}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W179"/>
+  <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9548,31 +12323,32 @@
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
     <col min="17" max="17" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="29"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:24" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="55" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="V1" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="W1" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="7" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="7" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>457</v>
       </c>
@@ -9624,8 +12400,14 @@
       <c r="S2" s="7" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U2" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -9683,14 +12465,17 @@
         <f t="shared" ref="S3:S34" si="2">IFERROR(VLOOKUP(F3,USERID,2,FALSE),"")</f>
         <v>24070652</v>
       </c>
-      <c r="V3">
+      <c r="U3">
+        <v>365</v>
+      </c>
+      <c r="W3">
         <v>28120200104</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>24070547</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -9748,14 +12533,17 @@
         <f t="shared" si="2"/>
         <v>24070652</v>
       </c>
-      <c r="V4">
+      <c r="U4">
+        <v>365</v>
+      </c>
+      <c r="W4">
         <v>28120200201</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>24070548</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -9813,14 +12601,17 @@
         <f t="shared" si="2"/>
         <v>24070653</v>
       </c>
-      <c r="V5">
+      <c r="U5">
+        <v>552</v>
+      </c>
+      <c r="W5">
         <v>28120200301</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>24070549</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -9878,14 +12669,17 @@
         <f t="shared" si="2"/>
         <v>24070653</v>
       </c>
-      <c r="V6">
+      <c r="U6">
+        <v>552</v>
+      </c>
+      <c r="W6">
         <v>28120200401</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>24070550</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -9943,14 +12737,17 @@
         <f t="shared" si="2"/>
         <v>24072899</v>
       </c>
-      <c r="V7">
+      <c r="U7">
+        <v>230</v>
+      </c>
+      <c r="W7">
         <v>28120200402</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>24070551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -10008,14 +12805,17 @@
         <f t="shared" si="2"/>
         <v>24070554</v>
       </c>
-      <c r="V8">
+      <c r="U8">
+        <v>69</v>
+      </c>
+      <c r="W8">
         <v>28120200403</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>24070552</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -10073,14 +12873,17 @@
         <f t="shared" si="2"/>
         <v>24070556</v>
       </c>
-      <c r="V9">
+      <c r="U9">
+        <v>57</v>
+      </c>
+      <c r="W9">
         <v>28120200502</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>24070553</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -10138,14 +12941,17 @@
         <f t="shared" si="2"/>
         <v>24070563</v>
       </c>
-      <c r="V10">
+      <c r="U10">
+        <v>97</v>
+      </c>
+      <c r="W10">
         <v>28120200701</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>24070554</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -10203,14 +13009,17 @@
         <f t="shared" si="2"/>
         <v>24070568</v>
       </c>
-      <c r="V11">
+      <c r="U11">
+        <v>69</v>
+      </c>
+      <c r="W11">
         <v>28120200801</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>24070555</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -10268,14 +13077,17 @@
         <f t="shared" si="2"/>
         <v>24070574</v>
       </c>
-      <c r="V12">
+      <c r="U12">
+        <v>40</v>
+      </c>
+      <c r="W12">
         <v>28120200901</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>24070556</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -10333,14 +13145,17 @@
         <f t="shared" si="2"/>
         <v>24070591</v>
       </c>
-      <c r="V13">
+      <c r="U13">
+        <v>66</v>
+      </c>
+      <c r="W13">
         <v>28120200903</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>24070557</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -10398,14 +13213,17 @@
         <f t="shared" si="2"/>
         <v>24070593</v>
       </c>
-      <c r="V14">
+      <c r="U14">
+        <v>43</v>
+      </c>
+      <c r="W14">
         <v>28120201101</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>24070558</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -10463,14 +13281,17 @@
         <f t="shared" si="2"/>
         <v>24070601</v>
       </c>
-      <c r="V15">
+      <c r="U15">
+        <v>78</v>
+      </c>
+      <c r="W15">
         <v>28120201102</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>24070559</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -10528,14 +13349,17 @@
         <f t="shared" si="2"/>
         <v>24070611</v>
       </c>
-      <c r="V16">
+      <c r="U16">
+        <v>38</v>
+      </c>
+      <c r="W16">
         <v>28120201201</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>24070560</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -10593,14 +13417,17 @@
         <f t="shared" si="2"/>
         <v>24070615</v>
       </c>
-      <c r="V17">
+      <c r="U17">
+        <v>25</v>
+      </c>
+      <c r="W17">
         <v>28120201202</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>24070561</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -10658,14 +13485,17 @@
         <f t="shared" si="2"/>
         <v>24070617</v>
       </c>
-      <c r="V18">
+      <c r="U18">
+        <v>43</v>
+      </c>
+      <c r="W18">
         <v>28120201203</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>24070562</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -10723,14 +13553,17 @@
         <f t="shared" si="2"/>
         <v>24070618</v>
       </c>
-      <c r="V19">
+      <c r="U19">
+        <v>42</v>
+      </c>
+      <c r="W19">
         <v>28120201204</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>24070563</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -10788,14 +13621,17 @@
         <f t="shared" si="2"/>
         <v>24070619</v>
       </c>
-      <c r="V20">
+      <c r="U20">
+        <v>52</v>
+      </c>
+      <c r="W20">
         <v>28120201205</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>24070564</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -10853,14 +13689,17 @@
         <f t="shared" si="2"/>
         <v>24070628</v>
       </c>
-      <c r="V21">
+      <c r="U21">
+        <v>31</v>
+      </c>
+      <c r="W21">
         <v>28120201301</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>24070565</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -10918,14 +13757,17 @@
         <f t="shared" si="2"/>
         <v>24070631</v>
       </c>
-      <c r="V22">
+      <c r="U22">
+        <v>32</v>
+      </c>
+      <c r="W22">
         <v>28120201302</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>24070566</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -10983,14 +13825,17 @@
         <f t="shared" si="2"/>
         <v>24070634</v>
       </c>
-      <c r="V23">
+      <c r="U23">
+        <v>72</v>
+      </c>
+      <c r="W23">
         <v>28120201401</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>24070567</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -11048,14 +13893,17 @@
         <f t="shared" si="2"/>
         <v>24070637</v>
       </c>
-      <c r="V24">
+      <c r="U24">
+        <v>50</v>
+      </c>
+      <c r="W24">
         <v>28120201501</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>24070568</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -11113,14 +13961,17 @@
         <f t="shared" si="2"/>
         <v>24070638</v>
       </c>
-      <c r="V25">
+      <c r="U25">
+        <v>52</v>
+      </c>
+      <c r="W25">
         <v>28120201601</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>24070569</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -11178,14 +14029,17 @@
         <f t="shared" si="2"/>
         <v>24070651</v>
       </c>
-      <c r="V26">
+      <c r="U26">
+        <v>85</v>
+      </c>
+      <c r="W26">
         <v>28120201603</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>24070570</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -11243,14 +14097,17 @@
         <f t="shared" si="2"/>
         <v>24070655</v>
       </c>
-      <c r="V27">
+      <c r="U27">
+        <v>41</v>
+      </c>
+      <c r="W27">
         <v>28120201702</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>24070572</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -11308,14 +14165,17 @@
         <f t="shared" si="2"/>
         <v>24070667</v>
       </c>
-      <c r="V28">
+      <c r="U28">
+        <v>43</v>
+      </c>
+      <c r="W28">
         <v>28120201708</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>24070573</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -11373,14 +14233,17 @@
         <f t="shared" si="2"/>
         <v>24070674</v>
       </c>
-      <c r="V29">
+      <c r="U29">
+        <v>18</v>
+      </c>
+      <c r="W29">
         <v>28120201801</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>24070574</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -11438,14 +14301,17 @@
         <f t="shared" si="2"/>
         <v>24070681</v>
       </c>
-      <c r="V30">
+      <c r="U30">
+        <v>28</v>
+      </c>
+      <c r="W30">
         <v>28120201803</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>24070575</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -11503,14 +14369,17 @@
         <f t="shared" si="2"/>
         <v>24070686</v>
       </c>
-      <c r="V31">
+      <c r="U31">
+        <v>39</v>
+      </c>
+      <c r="W31">
         <v>28120201901</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>24070576</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -11568,14 +14437,17 @@
         <f t="shared" si="2"/>
         <v>24070690</v>
       </c>
-      <c r="V32">
+      <c r="U32">
+        <v>27</v>
+      </c>
+      <c r="W32">
         <v>28120202001</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>24070577</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -11633,14 +14505,17 @@
         <f t="shared" si="2"/>
         <v>24070705</v>
       </c>
-      <c r="V33">
+      <c r="U33">
+        <v>110</v>
+      </c>
+      <c r="W33">
         <v>28120202002</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>24070578</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -11698,14 +14573,17 @@
         <f t="shared" si="2"/>
         <v>24070714</v>
       </c>
-      <c r="V34">
+      <c r="U34">
+        <v>30</v>
+      </c>
+      <c r="W34">
         <v>28120202003</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>24070579</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -11763,14 +14641,17 @@
         <f t="shared" ref="S35:S66" si="4">IFERROR(VLOOKUP(F35,USERID,2,FALSE),"")</f>
         <v>24070721</v>
       </c>
-      <c r="V35">
+      <c r="U35">
+        <v>34</v>
+      </c>
+      <c r="W35">
         <v>28120202006</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>24070580</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -11828,14 +14709,17 @@
         <f t="shared" si="4"/>
         <v>24070727</v>
       </c>
-      <c r="V36">
+      <c r="U36">
+        <v>37</v>
+      </c>
+      <c r="W36">
         <v>28120202101</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>24070581</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -11893,14 +14777,17 @@
         <f t="shared" si="4"/>
         <v>24070547</v>
       </c>
-      <c r="V37">
+      <c r="U37">
+        <v>27</v>
+      </c>
+      <c r="W37">
         <v>28120202201</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>24070582</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -11958,14 +14845,17 @@
         <f t="shared" si="4"/>
         <v>24070553</v>
       </c>
-      <c r="V38">
+      <c r="U38">
+        <v>43</v>
+      </c>
+      <c r="W38">
         <v>28120202401</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>24070583</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -12023,14 +14913,17 @@
         <f t="shared" si="4"/>
         <v>24070555</v>
       </c>
-      <c r="V39">
+      <c r="U39">
+        <v>42</v>
+      </c>
+      <c r="W39">
         <v>28120202501</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>24070584</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -12088,14 +14981,17 @@
         <f t="shared" si="4"/>
         <v>24070567</v>
       </c>
-      <c r="V40">
+      <c r="U40">
+        <v>28</v>
+      </c>
+      <c r="W40">
         <v>28120202601</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>24070585</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -12153,14 +15049,17 @@
         <f t="shared" si="4"/>
         <v>24070569</v>
       </c>
-      <c r="V41">
+      <c r="U41">
+        <v>12</v>
+      </c>
+      <c r="W41">
         <v>28120202701</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>24070586</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -12218,14 +15117,17 @@
         <f t="shared" si="4"/>
         <v>24070573</v>
       </c>
-      <c r="V42">
+      <c r="U42">
+        <v>33</v>
+      </c>
+      <c r="W42">
         <v>28120202801</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>24070587</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -12283,14 +15185,17 @@
         <f t="shared" si="4"/>
         <v>24070590</v>
       </c>
-      <c r="V43">
+      <c r="U43">
+        <v>15</v>
+      </c>
+      <c r="W43">
         <v>28120202802</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>24070588</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -12348,14 +15253,17 @@
         <f t="shared" si="4"/>
         <v>24070598</v>
       </c>
-      <c r="V44">
+      <c r="U44">
+        <v>12</v>
+      </c>
+      <c r="W44">
         <v>28120202803</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>24070589</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -12413,14 +15321,17 @@
         <f t="shared" si="4"/>
         <v>24070599</v>
       </c>
-      <c r="V45">
+      <c r="U45">
+        <v>59</v>
+      </c>
+      <c r="W45">
         <v>28120202901</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>24070590</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -12478,14 +15389,17 @@
         <f t="shared" si="4"/>
         <v>24070602</v>
       </c>
-      <c r="V46">
+      <c r="U46">
+        <v>42</v>
+      </c>
+      <c r="W46">
         <v>28120203001</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>24070591</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -12543,14 +15457,17 @@
         <f t="shared" si="4"/>
         <v>24070604</v>
       </c>
-      <c r="V47">
+      <c r="U47">
+        <v>73</v>
+      </c>
+      <c r="W47">
         <v>28120203101</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>24070592</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -12608,14 +15525,17 @@
         <f t="shared" si="4"/>
         <v>24070613</v>
       </c>
-      <c r="V48">
+      <c r="U48">
+        <v>52</v>
+      </c>
+      <c r="W48">
         <v>28120203201</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>24070593</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -12673,14 +15593,17 @@
         <f t="shared" si="4"/>
         <v>24070616</v>
       </c>
-      <c r="V49">
+      <c r="U49">
+        <v>59</v>
+      </c>
+      <c r="W49">
         <v>28120203301</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>24070594</v>
       </c>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -12738,14 +15661,17 @@
         <f t="shared" si="4"/>
         <v>24070627</v>
       </c>
-      <c r="V50">
+      <c r="U50">
+        <v>36</v>
+      </c>
+      <c r="W50">
         <v>28120203302</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>24070595</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -12803,14 +15729,17 @@
         <f t="shared" si="4"/>
         <v>24070629</v>
       </c>
-      <c r="V51">
+      <c r="U51">
+        <v>55</v>
+      </c>
+      <c r="W51">
         <v>28120203303</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>24070596</v>
       </c>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -12868,14 +15797,17 @@
         <f t="shared" si="4"/>
         <v>24070632</v>
       </c>
-      <c r="V52">
+      <c r="U52">
+        <v>52</v>
+      </c>
+      <c r="W52">
         <v>28120203401</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>24070597</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -12933,14 +15865,17 @@
         <f t="shared" si="4"/>
         <v>24070633</v>
       </c>
-      <c r="V53">
+      <c r="U53">
+        <v>30</v>
+      </c>
+      <c r="W53">
         <v>28120203403</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>24070598</v>
       </c>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -12998,14 +15933,17 @@
         <f t="shared" si="4"/>
         <v>24070635</v>
       </c>
-      <c r="V54">
+      <c r="U54">
+        <v>24</v>
+      </c>
+      <c r="W54">
         <v>28120203501</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>24070599</v>
       </c>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -13063,14 +16001,17 @@
         <f t="shared" si="4"/>
         <v>24070636</v>
       </c>
-      <c r="V55">
+      <c r="U55">
+        <v>41</v>
+      </c>
+      <c r="W55">
         <v>28120203502</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>24070600</v>
       </c>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -13128,14 +16069,17 @@
         <f t="shared" si="4"/>
         <v>24070641</v>
       </c>
-      <c r="V56">
+      <c r="U56">
+        <v>50</v>
+      </c>
+      <c r="W56">
         <v>28120203601</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>24070601</v>
       </c>
     </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -13193,14 +16137,17 @@
         <f t="shared" si="4"/>
         <v>24070642</v>
       </c>
-      <c r="V57">
+      <c r="U57">
+        <v>9</v>
+      </c>
+      <c r="W57">
         <v>28120203701</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>24070602</v>
       </c>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -13258,14 +16205,17 @@
         <f t="shared" si="4"/>
         <v>24070644</v>
       </c>
-      <c r="V58">
+      <c r="U58">
+        <v>7</v>
+      </c>
+      <c r="W58">
         <v>28120203702</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>24070603</v>
       </c>
     </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -13323,14 +16273,17 @@
         <f t="shared" si="4"/>
         <v>24070647</v>
       </c>
-      <c r="V59">
+      <c r="U59">
+        <v>28</v>
+      </c>
+      <c r="W59">
         <v>28120203801</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>24070604</v>
       </c>
     </row>
-    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -13388,14 +16341,17 @@
         <f t="shared" si="4"/>
         <v>24070648</v>
       </c>
-      <c r="V60">
+      <c r="U60">
+        <v>23</v>
+      </c>
+      <c r="W60">
         <v>28120203901</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>24070605</v>
       </c>
     </row>
-    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -13453,14 +16409,17 @@
         <f t="shared" si="4"/>
         <v>24070663</v>
       </c>
-      <c r="V61">
+      <c r="U61">
+        <v>44</v>
+      </c>
+      <c r="W61">
         <v>28120204001</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>24070606</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -13518,14 +16477,17 @@
         <f t="shared" si="4"/>
         <v>24070668</v>
       </c>
-      <c r="V62">
+      <c r="U62">
+        <v>18</v>
+      </c>
+      <c r="W62">
         <v>28120204101</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>24070607</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -13583,14 +16545,17 @@
         <f t="shared" si="4"/>
         <v>24070671</v>
       </c>
-      <c r="V63">
+      <c r="U63">
+        <v>15</v>
+      </c>
+      <c r="W63">
         <v>28120204201</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>24070608</v>
       </c>
     </row>
-    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -13648,14 +16613,17 @@
         <f t="shared" si="4"/>
         <v>24070675</v>
       </c>
-      <c r="V64">
+      <c r="U64">
+        <v>36</v>
+      </c>
+      <c r="W64">
         <v>28120204401</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>24070609</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -13713,14 +16681,17 @@
         <f t="shared" si="4"/>
         <v>24070679</v>
       </c>
-      <c r="V65">
+      <c r="U65">
+        <v>32</v>
+      </c>
+      <c r="W65">
         <v>28120204501</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>24070610</v>
       </c>
     </row>
-    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -13778,14 +16749,17 @@
         <f t="shared" si="4"/>
         <v>24070691</v>
       </c>
-      <c r="V66">
+      <c r="U66">
+        <v>49</v>
+      </c>
+      <c r="W66">
         <v>28120204601</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>24070611</v>
       </c>
     </row>
-    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -13843,14 +16817,17 @@
         <f t="shared" ref="S67:S98" si="7">IFERROR(VLOOKUP(F67,USERID,2,FALSE),"")</f>
         <v>24070697</v>
       </c>
-      <c r="V67">
+      <c r="U67">
+        <v>27</v>
+      </c>
+      <c r="W67">
         <v>28120204701</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>24070613</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -13908,14 +16885,17 @@
         <f t="shared" si="7"/>
         <v>24070699</v>
       </c>
-      <c r="V68">
+      <c r="U68">
+        <v>22</v>
+      </c>
+      <c r="W68">
         <v>28120204702</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>24070614</v>
       </c>
     </row>
-    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -13973,14 +16953,17 @@
         <f t="shared" si="7"/>
         <v>24070700</v>
       </c>
-      <c r="V69">
+      <c r="U69">
+        <v>14</v>
+      </c>
+      <c r="W69">
         <v>28120204801</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>24070615</v>
       </c>
     </row>
-    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -14038,14 +17021,17 @@
         <f t="shared" si="7"/>
         <v>24070702</v>
       </c>
-      <c r="V70">
+      <c r="U70">
+        <v>60</v>
+      </c>
+      <c r="W70">
         <v>28120204901</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>24070616</v>
       </c>
     </row>
-    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -14103,14 +17089,17 @@
         <f t="shared" si="7"/>
         <v>24070703</v>
       </c>
-      <c r="V71">
+      <c r="U71">
+        <v>88</v>
+      </c>
+      <c r="W71">
         <v>28120204902</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>24070617</v>
       </c>
     </row>
-    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -14168,14 +17157,17 @@
         <f t="shared" si="7"/>
         <v>24070711</v>
       </c>
-      <c r="V72">
+      <c r="U72">
+        <v>25</v>
+      </c>
+      <c r="W72">
         <v>28120205001</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>24070618</v>
       </c>
     </row>
-    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -14233,14 +17225,17 @@
         <f t="shared" si="7"/>
         <v>24070712</v>
       </c>
-      <c r="V73">
+      <c r="U73">
+        <v>15</v>
+      </c>
+      <c r="W73">
         <v>28120205201</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>24070619</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -14298,14 +17293,17 @@
         <f t="shared" si="7"/>
         <v>24070715</v>
       </c>
-      <c r="V74">
+      <c r="U74">
+        <v>31</v>
+      </c>
+      <c r="W74">
         <v>28120205202</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>24070620</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -14363,14 +17361,17 @@
         <f t="shared" si="7"/>
         <v>24070719</v>
       </c>
-      <c r="V75">
+      <c r="U75">
+        <v>34</v>
+      </c>
+      <c r="W75">
         <v>28120205401</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>24070622</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -14428,14 +17429,17 @@
         <f t="shared" si="7"/>
         <v>24070720</v>
       </c>
-      <c r="V76">
+      <c r="U76">
+        <v>32</v>
+      </c>
+      <c r="W76">
         <v>28120205501</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>24070623</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -14493,14 +17497,17 @@
         <f t="shared" si="7"/>
         <v>24070725</v>
       </c>
-      <c r="V77">
+      <c r="U77">
+        <v>34</v>
+      </c>
+      <c r="W77">
         <v>28120205601</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>24070624</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -14558,14 +17565,17 @@
         <f t="shared" si="7"/>
         <v>24070726</v>
       </c>
-      <c r="V78">
+      <c r="U78">
+        <v>24</v>
+      </c>
+      <c r="W78">
         <v>28120205701</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>24070625</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -14623,14 +17633,17 @@
         <f t="shared" si="7"/>
         <v>24070728</v>
       </c>
-      <c r="V79">
+      <c r="U79">
+        <v>34</v>
+      </c>
+      <c r="W79">
         <v>28120205801</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>24070626</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -14688,14 +17701,17 @@
         <f t="shared" si="7"/>
         <v>24070687</v>
       </c>
-      <c r="V80">
+      <c r="U80">
+        <v>20</v>
+      </c>
+      <c r="W80">
         <v>28120206001</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>24070627</v>
       </c>
     </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -14753,14 +17769,17 @@
         <f t="shared" si="7"/>
         <v>24070624</v>
       </c>
-      <c r="V81">
+      <c r="U81">
+        <v>52</v>
+      </c>
+      <c r="W81">
         <v>28120206101</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>24070628</v>
       </c>
     </row>
-    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -14818,14 +17837,17 @@
         <f t="shared" si="7"/>
         <v>24070548</v>
       </c>
-      <c r="V82">
+      <c r="U82">
+        <v>5</v>
+      </c>
+      <c r="W82">
         <v>28120206301</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>24070629</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -14883,14 +17905,17 @@
         <f t="shared" si="7"/>
         <v>24070552</v>
       </c>
-      <c r="V83">
+      <c r="U83">
+        <v>5</v>
+      </c>
+      <c r="W83">
         <v>28120206401</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>24070630</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -14948,14 +17973,17 @@
         <f t="shared" si="7"/>
         <v>24070557</v>
       </c>
-      <c r="V84">
+      <c r="U84">
+        <v>5</v>
+      </c>
+      <c r="W84">
         <v>28120206501</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>24070631</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -15013,14 +18041,17 @@
         <f t="shared" si="7"/>
         <v>24070558</v>
       </c>
-      <c r="V85">
+      <c r="U85">
+        <v>6</v>
+      </c>
+      <c r="W85">
         <v>28120206701</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>24070632</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -15078,14 +18109,17 @@
         <f t="shared" si="7"/>
         <v>24070559</v>
       </c>
-      <c r="V86">
+      <c r="U86">
+        <v>7</v>
+      </c>
+      <c r="W86">
         <v>28120206801</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>24070633</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -15143,14 +18177,17 @@
         <f t="shared" si="7"/>
         <v>24070560</v>
       </c>
-      <c r="V87">
+      <c r="U87">
+        <v>9</v>
+      </c>
+      <c r="W87">
         <v>28120206901</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>24070634</v>
       </c>
     </row>
-    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -15208,14 +18245,17 @@
         <f t="shared" si="7"/>
         <v>24070561</v>
       </c>
-      <c r="V88">
+      <c r="U88">
+        <v>18</v>
+      </c>
+      <c r="W88">
         <v>28120206903</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>24070635</v>
       </c>
     </row>
-    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -15273,14 +18313,17 @@
         <f t="shared" si="7"/>
         <v>24070562</v>
       </c>
-      <c r="V89">
+      <c r="U89">
+        <v>6</v>
+      </c>
+      <c r="W89">
         <v>28120207001</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>24070636</v>
       </c>
     </row>
-    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -15338,14 +18381,17 @@
         <f t="shared" si="7"/>
         <v>24070565</v>
       </c>
-      <c r="V90">
+      <c r="U90">
+        <v>10</v>
+      </c>
+      <c r="W90">
         <v>28120207002</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>24070637</v>
       </c>
     </row>
-    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -15403,14 +18449,17 @@
         <f t="shared" si="7"/>
         <v>24070566</v>
       </c>
-      <c r="V91">
+      <c r="U91">
+        <v>39</v>
+      </c>
+      <c r="W91">
         <v>28120207003</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>24072899</v>
       </c>
     </row>
-    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -15468,14 +18517,17 @@
         <f t="shared" si="7"/>
         <v>24070572</v>
       </c>
-      <c r="V92">
+      <c r="U92">
+        <v>10</v>
+      </c>
+      <c r="W92">
         <v>28120207101</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>24070638</v>
       </c>
     </row>
-    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -15533,14 +18585,17 @@
         <f t="shared" si="7"/>
         <v>24070576</v>
       </c>
-      <c r="V93">
+      <c r="U93">
+        <v>21</v>
+      </c>
+      <c r="W93">
         <v>28120207102</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>24070639</v>
       </c>
     </row>
-    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -15598,14 +18653,17 @@
         <f t="shared" si="7"/>
         <v>24070578</v>
       </c>
-      <c r="V94">
+      <c r="U94">
+        <v>6</v>
+      </c>
+      <c r="W94">
         <v>28120207103</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>24070640</v>
       </c>
     </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>93</v>
       </c>
@@ -15663,14 +18721,17 @@
         <f t="shared" si="7"/>
         <v>24070579</v>
       </c>
-      <c r="V95">
+      <c r="U95">
+        <v>28</v>
+      </c>
+      <c r="W95">
         <v>28120207201</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>24070641</v>
       </c>
     </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>94</v>
       </c>
@@ -15728,14 +18789,17 @@
         <f t="shared" si="7"/>
         <v>24070581</v>
       </c>
-      <c r="V96">
+      <c r="U96">
+        <v>13</v>
+      </c>
+      <c r="W96">
         <v>28120207202</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>24070642</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>95</v>
       </c>
@@ -15793,14 +18857,17 @@
         <f t="shared" si="7"/>
         <v>24070582</v>
       </c>
-      <c r="V97">
+      <c r="U97">
+        <v>21</v>
+      </c>
+      <c r="W97">
         <v>28120207203</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>24070643</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -15858,14 +18925,17 @@
         <f t="shared" si="7"/>
         <v>24070584</v>
       </c>
-      <c r="V98">
+      <c r="U98">
+        <v>11</v>
+      </c>
+      <c r="W98">
         <v>28120207301</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>24070644</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>97</v>
       </c>
@@ -15923,14 +18993,17 @@
         <f t="shared" ref="S99:S130" si="9">IFERROR(VLOOKUP(F99,USERID,2,FALSE),"")</f>
         <v>24070586</v>
       </c>
-      <c r="V99">
+      <c r="U99">
+        <v>9</v>
+      </c>
+      <c r="W99">
         <v>28120207302</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>24070645</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>98</v>
       </c>
@@ -15988,14 +19061,17 @@
         <f t="shared" si="9"/>
         <v>24070592</v>
       </c>
-      <c r="V100">
+      <c r="U100">
+        <v>22</v>
+      </c>
+      <c r="W100">
         <v>28120207401</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>24070646</v>
       </c>
     </row>
-    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>99</v>
       </c>
@@ -16053,14 +19129,17 @@
         <f t="shared" si="9"/>
         <v>24070594</v>
       </c>
-      <c r="V101">
+      <c r="U101">
+        <v>15</v>
+      </c>
+      <c r="W101">
         <v>28120207501</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>24070647</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>100</v>
       </c>
@@ -16118,14 +19197,17 @@
         <f t="shared" si="9"/>
         <v>24070595</v>
       </c>
-      <c r="V102">
+      <c r="U102">
+        <v>7</v>
+      </c>
+      <c r="W102">
         <v>28120207502</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>24070648</v>
       </c>
     </row>
-    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>101</v>
       </c>
@@ -16183,14 +19265,17 @@
         <f t="shared" si="9"/>
         <v>24070600</v>
       </c>
-      <c r="V103">
+      <c r="U103">
+        <v>21</v>
+      </c>
+      <c r="W103">
         <v>28120207504</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>24070650</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>102</v>
       </c>
@@ -16248,14 +19333,17 @@
         <f t="shared" si="9"/>
         <v>24070603</v>
       </c>
-      <c r="V104">
+      <c r="U104">
+        <v>7</v>
+      </c>
+      <c r="W104">
         <v>28120207505</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>24070651</v>
       </c>
     </row>
-    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>103</v>
       </c>
@@ -16313,14 +19401,17 @@
         <f t="shared" si="9"/>
         <v>24070606</v>
       </c>
-      <c r="V105">
+      <c r="U105">
+        <v>14</v>
+      </c>
+      <c r="W105">
         <v>28120207506</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>24070652</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>104</v>
       </c>
@@ -16378,14 +19469,17 @@
         <f t="shared" si="9"/>
         <v>24070608</v>
       </c>
-      <c r="V106">
+      <c r="U106">
+        <v>15</v>
+      </c>
+      <c r="W106">
         <v>28120207507</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>24070653</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>105</v>
       </c>
@@ -16443,14 +19537,17 @@
         <f t="shared" si="9"/>
         <v>24070614</v>
       </c>
-      <c r="V107">
+      <c r="U107">
+        <v>10</v>
+      </c>
+      <c r="W107">
         <v>28120207601</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>24070654</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>106</v>
       </c>
@@ -16508,14 +19605,17 @@
         <f t="shared" si="9"/>
         <v>24070625</v>
       </c>
-      <c r="V108">
+      <c r="U108">
+        <v>19</v>
+      </c>
+      <c r="W108">
         <v>28120207602</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>24070655</v>
       </c>
     </row>
-    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>107</v>
       </c>
@@ -16573,14 +19673,17 @@
         <f t="shared" si="9"/>
         <v>24070626</v>
       </c>
-      <c r="V109">
+      <c r="U109">
+        <v>17</v>
+      </c>
+      <c r="W109">
         <v>28120207603</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>24070656</v>
       </c>
     </row>
-    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>108</v>
       </c>
@@ -16638,14 +19741,17 @@
         <f t="shared" si="9"/>
         <v>24070630</v>
       </c>
-      <c r="V110">
+      <c r="U110">
+        <v>18</v>
+      </c>
+      <c r="W110">
         <v>28120207604</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>24070657</v>
       </c>
     </row>
-    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>109</v>
       </c>
@@ -16703,14 +19809,17 @@
         <f t="shared" si="9"/>
         <v>24070640</v>
       </c>
-      <c r="V111">
+      <c r="U111">
+        <v>11</v>
+      </c>
+      <c r="W111">
         <v>28120207607</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>24070658</v>
       </c>
     </row>
-    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>110</v>
       </c>
@@ -16768,14 +19877,17 @@
         <f t="shared" si="9"/>
         <v>24070645</v>
       </c>
-      <c r="V112">
+      <c r="U112">
+        <v>16</v>
+      </c>
+      <c r="W112">
         <v>28120207610</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>24070659</v>
       </c>
     </row>
-    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>111</v>
       </c>
@@ -16833,14 +19945,17 @@
         <f t="shared" si="9"/>
         <v>24070646</v>
       </c>
-      <c r="V113">
+      <c r="U113">
+        <v>4</v>
+      </c>
+      <c r="W113">
         <v>28120207611</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>24070660</v>
       </c>
     </row>
-    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>112</v>
       </c>
@@ -16898,14 +20013,17 @@
         <f t="shared" si="9"/>
         <v>24070650</v>
       </c>
-      <c r="V114">
+      <c r="U114">
+        <v>9</v>
+      </c>
+      <c r="W114">
         <v>28120207612</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>24070661</v>
       </c>
     </row>
-    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>113</v>
       </c>
@@ -16963,14 +20081,17 @@
         <f t="shared" si="9"/>
         <v>24070664</v>
       </c>
-      <c r="V115">
+      <c r="U115">
+        <v>8</v>
+      </c>
+      <c r="W115">
         <v>28120207615</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>24070662</v>
       </c>
     </row>
-    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>114</v>
       </c>
@@ -17028,14 +20149,17 @@
         <f t="shared" si="9"/>
         <v>24070665</v>
       </c>
-      <c r="V116">
+      <c r="U116">
+        <v>17</v>
+      </c>
+      <c r="W116">
         <v>28120207701</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>24070663</v>
       </c>
     </row>
-    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>115</v>
       </c>
@@ -17093,14 +20217,17 @@
         <f t="shared" si="9"/>
         <v>24070677</v>
       </c>
-      <c r="V117">
+      <c r="U117">
+        <v>14</v>
+      </c>
+      <c r="W117">
         <v>28120207702</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>24070664</v>
       </c>
     </row>
-    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>116</v>
       </c>
@@ -17158,14 +20285,17 @@
         <f t="shared" si="9"/>
         <v>24070684</v>
       </c>
-      <c r="V118">
+      <c r="U118">
+        <v>18</v>
+      </c>
+      <c r="W118">
         <v>28120207703</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>24070665</v>
       </c>
     </row>
-    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>117</v>
       </c>
@@ -17223,14 +20353,17 @@
         <f t="shared" si="9"/>
         <v>24070688</v>
       </c>
-      <c r="V119">
+      <c r="U119">
+        <v>38</v>
+      </c>
+      <c r="W119">
         <v>28120207901</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>24070666</v>
       </c>
     </row>
-    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>118</v>
       </c>
@@ -17288,14 +20421,17 @@
         <f t="shared" si="9"/>
         <v>24070695</v>
       </c>
-      <c r="V120">
+      <c r="U120">
+        <v>20</v>
+      </c>
+      <c r="W120">
         <v>28120208001</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>24070667</v>
       </c>
     </row>
-    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>119</v>
       </c>
@@ -17353,14 +20489,17 @@
         <f t="shared" si="9"/>
         <v>24070698</v>
       </c>
-      <c r="V121">
+      <c r="U121">
+        <v>6</v>
+      </c>
+      <c r="W121">
         <v>28120208103</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>24070668</v>
       </c>
     </row>
-    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>120</v>
       </c>
@@ -17418,14 +20557,17 @@
         <f t="shared" si="9"/>
         <v>24070707</v>
       </c>
-      <c r="V122">
+      <c r="U122">
+        <v>57</v>
+      </c>
+      <c r="W122">
         <v>28120208201</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>24070669</v>
       </c>
     </row>
-    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>121</v>
       </c>
@@ -17483,14 +20625,17 @@
         <f t="shared" si="9"/>
         <v>24070708</v>
       </c>
-      <c r="V123">
+      <c r="U123">
+        <v>28</v>
+      </c>
+      <c r="W123">
         <v>28120208301</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>24070670</v>
       </c>
     </row>
-    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>122</v>
       </c>
@@ -17548,14 +20693,17 @@
         <f t="shared" si="9"/>
         <v>24070710</v>
       </c>
-      <c r="V124">
+      <c r="U124">
+        <v>11</v>
+      </c>
+      <c r="W124">
         <v>28120208401</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>24070671</v>
       </c>
     </row>
-    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>123</v>
       </c>
@@ -17613,14 +20761,17 @@
         <f t="shared" si="9"/>
         <v>24070718</v>
       </c>
-      <c r="V125">
+      <c r="U125">
+        <v>30</v>
+      </c>
+      <c r="W125">
         <v>28120208501</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>24070672</v>
       </c>
     </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>124</v>
       </c>
@@ -17678,14 +20829,17 @@
         <f t="shared" si="9"/>
         <v>24070723</v>
       </c>
-      <c r="V126">
+      <c r="U126">
+        <v>15</v>
+      </c>
+      <c r="W126">
         <v>28120208701</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>24070674</v>
       </c>
     </row>
-    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>125</v>
       </c>
@@ -17743,14 +20897,17 @@
         <f t="shared" si="9"/>
         <v>24070729</v>
       </c>
-      <c r="V127">
+      <c r="U127">
+        <v>13</v>
+      </c>
+      <c r="W127">
         <v>28120208801</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>24070675</v>
       </c>
     </row>
-    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>126</v>
       </c>
@@ -17808,14 +20965,17 @@
         <f t="shared" si="9"/>
         <v>24070588</v>
       </c>
-      <c r="V128">
+      <c r="U128">
+        <v>14</v>
+      </c>
+      <c r="W128">
         <v>28120208802</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>24070676</v>
       </c>
     </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>127</v>
       </c>
@@ -17872,14 +21032,17 @@
         <f t="shared" si="9"/>
         <v>24070713</v>
       </c>
-      <c r="V129">
+      <c r="U129">
+        <v>61</v>
+      </c>
+      <c r="W129">
         <v>28120208803</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>24070677</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>128</v>
       </c>
@@ -17937,14 +21100,17 @@
         <f t="shared" si="9"/>
         <v>24070564</v>
       </c>
-      <c r="V130">
+      <c r="U130">
+        <v>268</v>
+      </c>
+      <c r="W130">
         <v>28120208901</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>24070679</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>129</v>
       </c>
@@ -18002,14 +21168,17 @@
         <f t="shared" ref="S131:S149" si="12">IFERROR(VLOOKUP(F131,USERID,2,FALSE),"")</f>
         <v>24070570</v>
       </c>
-      <c r="V131">
+      <c r="U131">
+        <v>73</v>
+      </c>
+      <c r="W131">
         <v>28120209001</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>24070680</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>130</v>
       </c>
@@ -18067,14 +21236,17 @@
         <f t="shared" si="12"/>
         <v>24070575</v>
       </c>
-      <c r="V132">
+      <c r="U132">
+        <v>362</v>
+      </c>
+      <c r="W132">
         <v>28120209101</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>24070681</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>131</v>
       </c>
@@ -18132,14 +21304,17 @@
         <f t="shared" si="12"/>
         <v>24070575</v>
       </c>
-      <c r="V133">
+      <c r="U133">
+        <v>362</v>
+      </c>
+      <c r="W133">
         <v>28120209201</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>24070682</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>132</v>
       </c>
@@ -18197,14 +21372,17 @@
         <f t="shared" si="12"/>
         <v>24070589</v>
       </c>
-      <c r="V134">
+      <c r="U134">
+        <v>237</v>
+      </c>
+      <c r="W134">
         <v>28120209301</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>24070683</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>133</v>
       </c>
@@ -18262,14 +21440,17 @@
         <f t="shared" si="12"/>
         <v>24070662</v>
       </c>
-      <c r="V135">
+      <c r="U135">
+        <v>321</v>
+      </c>
+      <c r="W135">
         <v>28120209302</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>24070684</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>134</v>
       </c>
@@ -18327,14 +21508,17 @@
         <f t="shared" si="12"/>
         <v>24070662</v>
       </c>
-      <c r="V136">
+      <c r="U136">
+        <v>321</v>
+      </c>
+      <c r="W136">
         <v>28120209401</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>24070685</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>135</v>
       </c>
@@ -18392,14 +21576,17 @@
         <f t="shared" si="12"/>
         <v>24070692</v>
       </c>
-      <c r="V137">
+      <c r="U137">
+        <v>78</v>
+      </c>
+      <c r="W137">
         <v>28120209501</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>24070686</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>136</v>
       </c>
@@ -18457,14 +21644,17 @@
         <f t="shared" si="12"/>
         <v>24070704</v>
       </c>
-      <c r="V138">
+      <c r="U138">
+        <v>448</v>
+      </c>
+      <c r="W138">
         <v>28120209602</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>24070687</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>137</v>
       </c>
@@ -18522,14 +21712,17 @@
         <f t="shared" si="12"/>
         <v>24070704</v>
       </c>
-      <c r="V139">
+      <c r="U139">
+        <v>448</v>
+      </c>
+      <c r="W139">
         <v>28120209701</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>24070688</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>138</v>
       </c>
@@ -18587,14 +21780,17 @@
         <f t="shared" si="12"/>
         <v>24070717</v>
       </c>
-      <c r="V140">
+      <c r="U140">
+        <v>176</v>
+      </c>
+      <c r="W140">
         <v>28120209801</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>24070689</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>139</v>
       </c>
@@ -18652,14 +21848,17 @@
         <f t="shared" si="12"/>
         <v>24070724</v>
       </c>
-      <c r="V141">
+      <c r="U141">
+        <v>199</v>
+      </c>
+      <c r="W141">
         <v>28120209901</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>24070690</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>140</v>
       </c>
@@ -18717,14 +21916,17 @@
         <f t="shared" si="12"/>
         <v>24070730</v>
       </c>
-      <c r="V142">
+      <c r="U142">
+        <v>382</v>
+      </c>
+      <c r="W142">
         <v>28120210001</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>24070691</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>141</v>
       </c>
@@ -18782,14 +21984,17 @@
         <f t="shared" si="12"/>
         <v>24070730</v>
       </c>
-      <c r="V143">
+      <c r="U143">
+        <v>382</v>
+      </c>
+      <c r="W143">
         <v>28120210003</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>24070692</v>
       </c>
     </row>
-    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>142</v>
       </c>
@@ -18847,14 +22052,17 @@
         <f t="shared" si="12"/>
         <v>24070657</v>
       </c>
-      <c r="V144">
+      <c r="U144">
+        <v>263</v>
+      </c>
+      <c r="W144">
         <v>28120210201</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>24070693</v>
       </c>
     </row>
-    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>143</v>
       </c>
@@ -18912,14 +22120,17 @@
         <f t="shared" si="12"/>
         <v>24070657</v>
       </c>
-      <c r="V145">
+      <c r="U145">
+        <v>263</v>
+      </c>
+      <c r="W145">
         <v>28120210202</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>24070694</v>
       </c>
     </row>
-    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>144</v>
       </c>
@@ -18977,14 +22188,17 @@
         <f t="shared" si="12"/>
         <v>24070716</v>
       </c>
-      <c r="V146">
+      <c r="U146">
+        <v>9</v>
+      </c>
+      <c r="W146">
         <v>28120210203</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>24070695</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>145</v>
       </c>
@@ -19042,14 +22256,17 @@
         <f t="shared" si="12"/>
         <v>24070658</v>
       </c>
-      <c r="V147">
+      <c r="U147">
+        <v>166</v>
+      </c>
+      <c r="W147">
         <v>28120210205</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>24070696</v>
       </c>
     </row>
-    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>146</v>
       </c>
@@ -19105,14 +22322,17 @@
         <f t="shared" si="12"/>
         <v>24070583</v>
       </c>
-      <c r="V148">
+      <c r="U148">
+        <v>38</v>
+      </c>
+      <c r="W148">
         <v>28120210210</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>24070697</v>
       </c>
     </row>
-    <row r="149" spans="1:23" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="35">
         <v>147</v>
       </c>
@@ -19168,14 +22388,18 @@
         <f t="shared" si="12"/>
         <v>24070696</v>
       </c>
-      <c r="V149" s="38">
+      <c r="T149"/>
+      <c r="U149">
+        <v>355</v>
+      </c>
+      <c r="W149" s="38">
         <v>28120210301</v>
       </c>
-      <c r="W149" s="38">
+      <c r="X149" s="38">
         <v>24070698</v>
       </c>
     </row>
-    <row r="150" spans="1:23" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -19199,265 +22423,349 @@
         <v>882000</v>
       </c>
       <c r="O150" s="26"/>
-      <c r="V150" s="27">
+      <c r="U150" t="s">
+        <v>870</v>
+      </c>
+      <c r="W150" s="27">
         <v>28120210401</v>
       </c>
-      <c r="W150" s="27">
+      <c r="X150" s="27">
         <v>24070699</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V151">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U151" t="s">
+        <v>870</v>
+      </c>
+      <c r="W151">
         <v>28120210501</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>24070700</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V152">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U152" t="s">
+        <v>870</v>
+      </c>
+      <c r="W152">
         <v>28120210601</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>24070702</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L153" s="55" t="s">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L153" s="56" t="s">
         <v>766</v>
       </c>
-      <c r="M153" s="56"/>
-      <c r="N153" s="56"/>
-      <c r="O153" s="56"/>
-      <c r="V153">
+      <c r="M153" s="57"/>
+      <c r="N153" s="57"/>
+      <c r="O153" s="57"/>
+      <c r="U153" t="s">
+        <v>870</v>
+      </c>
+      <c r="W153">
         <v>28120210801</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>24070703</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L154" s="56" t="s">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="L154" s="57" t="s">
         <v>767</v>
       </c>
-      <c r="M154" s="56"/>
-      <c r="N154" s="56"/>
-      <c r="O154" s="56"/>
-      <c r="V154">
+      <c r="M154" s="57"/>
+      <c r="N154" s="57"/>
+      <c r="O154" s="57"/>
+      <c r="U154" t="s">
+        <v>870</v>
+      </c>
+      <c r="W154">
         <v>28120210804</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>24070704</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V155">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U155" t="s">
+        <v>870</v>
+      </c>
+      <c r="W155">
         <v>28120211001</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>24070705</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V156">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U156" t="s">
+        <v>870</v>
+      </c>
+      <c r="W156">
         <v>28120211201</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>24070706</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V157">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U157" t="s">
+        <v>870</v>
+      </c>
+      <c r="W157">
         <v>28120211301</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>24070707</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V158">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U158" t="s">
+        <v>870</v>
+      </c>
+      <c r="W158">
         <v>28120211401</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>24070708</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V159">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U159" t="s">
+        <v>870</v>
+      </c>
+      <c r="W159">
         <v>28120211501</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>24070709</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="V160">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U160" t="s">
+        <v>870</v>
+      </c>
+      <c r="W160">
         <v>28120211601</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>24070710</v>
       </c>
     </row>
-    <row r="161" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V161">
+    <row r="161" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U161" t="s">
+        <v>870</v>
+      </c>
+      <c r="W161">
         <v>28120211701</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>24070711</v>
       </c>
     </row>
-    <row r="162" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V162">
+    <row r="162" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U162" t="s">
+        <v>870</v>
+      </c>
+      <c r="W162">
         <v>28120211801</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>24070712</v>
       </c>
     </row>
-    <row r="163" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V163">
+    <row r="163" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U163" t="s">
+        <v>870</v>
+      </c>
+      <c r="W163">
         <v>28120211901</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>24070713</v>
       </c>
     </row>
-    <row r="164" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V164">
+    <row r="164" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U164" t="s">
+        <v>870</v>
+      </c>
+      <c r="W164">
         <v>28120212001</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>24070714</v>
       </c>
     </row>
-    <row r="165" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V165">
+    <row r="165" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U165" t="s">
+        <v>870</v>
+      </c>
+      <c r="W165">
         <v>28120212101</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>24070715</v>
       </c>
     </row>
-    <row r="166" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V166">
+    <row r="166" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U166" t="s">
+        <v>870</v>
+      </c>
+      <c r="W166">
         <v>28120212103</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>24070716</v>
       </c>
     </row>
-    <row r="167" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V167">
+    <row r="167" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U167" t="s">
+        <v>870</v>
+      </c>
+      <c r="W167">
         <v>28120212104</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>24070717</v>
       </c>
     </row>
-    <row r="168" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V168">
+    <row r="168" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U168" t="s">
+        <v>870</v>
+      </c>
+      <c r="W168">
         <v>28120212107</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>24070718</v>
       </c>
     </row>
-    <row r="169" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V169">
+    <row r="169" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U169" t="s">
+        <v>870</v>
+      </c>
+      <c r="W169">
         <v>28120212201</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>24070719</v>
       </c>
     </row>
-    <row r="170" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V170">
+    <row r="170" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U170" t="s">
+        <v>870</v>
+      </c>
+      <c r="W170">
         <v>28120212202</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>24070720</v>
       </c>
     </row>
-    <row r="171" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V171">
+    <row r="171" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U171" t="s">
+        <v>870</v>
+      </c>
+      <c r="W171">
         <v>28120212203</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>24070721</v>
       </c>
     </row>
-    <row r="172" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V172">
+    <row r="172" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U172" t="s">
+        <v>870</v>
+      </c>
+      <c r="W172">
         <v>28120212205</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>24070723</v>
       </c>
     </row>
-    <row r="173" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V173">
+    <row r="173" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U173" t="s">
+        <v>870</v>
+      </c>
+      <c r="W173">
         <v>28120212206</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>24070724</v>
       </c>
     </row>
-    <row r="174" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V174">
+    <row r="174" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U174" t="s">
+        <v>870</v>
+      </c>
+      <c r="W174">
         <v>28120212301</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>24070725</v>
       </c>
     </row>
-    <row r="175" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V175">
+    <row r="175" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U175" t="s">
+        <v>870</v>
+      </c>
+      <c r="W175">
         <v>28120212302</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>24070726</v>
       </c>
     </row>
-    <row r="176" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V176">
+    <row r="176" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U176" t="s">
+        <v>870</v>
+      </c>
+      <c r="W176">
         <v>28120212303</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>24070727</v>
       </c>
     </row>
-    <row r="177" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V177">
+    <row r="177" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U177" t="s">
+        <v>870</v>
+      </c>
+      <c r="W177">
         <v>28120212401</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>24070728</v>
       </c>
     </row>
-    <row r="178" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V178">
+    <row r="178" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U178" t="s">
+        <v>870</v>
+      </c>
+      <c r="W178">
         <v>28120212402</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>24070729</v>
       </c>
     </row>
-    <row r="179" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V179">
+    <row r="179" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U179" t="s">
+        <v>870</v>
+      </c>
+      <c r="W179">
         <v>28120212403</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>24070730</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W150" xr:uid="{1A65B180-839D-4152-91AA-82E922F5B851}">
-    <filterColumn colId="17">
-      <filters>
-        <filter val="OTHER"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:X150" xr:uid="{1A65B180-839D-4152-91AA-82E922F5B851}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="L153:O153"/>
@@ -19467,7 +22775,1933 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914683C3-09B1-4BEA-AB76-4AA4892FB41D}">
+  <dimension ref="A2:C175"/>
+  <sheetViews>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>28120207603</v>
+      </c>
+      <c r="B4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>28120203401</v>
+      </c>
+      <c r="B5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>28120210201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>853</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>28120202001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>812</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>28120204101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>28120202801</v>
+      </c>
+      <c r="B9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>28120207003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>835</v>
+      </c>
+      <c r="C10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>28120207506</v>
+      </c>
+      <c r="B11" t="s">
+        <v>872</v>
+      </c>
+      <c r="C11">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>28120207507</v>
+      </c>
+      <c r="B12" t="s">
+        <v>841</v>
+      </c>
+      <c r="C12">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28120211001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>28120205201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>28120212203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>28120204601</v>
+      </c>
+      <c r="B16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>28120207505</v>
+      </c>
+      <c r="B17" t="s">
+        <v>526</v>
+      </c>
+      <c r="C17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>28120206101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>514</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>28120209501</v>
+      </c>
+      <c r="B19" t="s">
+        <v>536</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>28120207602</v>
+      </c>
+      <c r="B20" t="s">
+        <v>528</v>
+      </c>
+      <c r="C20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>28120207002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>522</v>
+      </c>
+      <c r="C21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>28120200701</v>
+      </c>
+      <c r="B22" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>28120204801</v>
+      </c>
+      <c r="B23" t="s">
+        <v>506</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>28120201801</v>
+      </c>
+      <c r="B24" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>28120203201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>499</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28120206501</v>
+      </c>
+      <c r="B26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28120205001</v>
+      </c>
+      <c r="B27" t="s">
+        <v>510</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28120206901</v>
+      </c>
+      <c r="B28" t="s">
+        <v>519</v>
+      </c>
+      <c r="C28">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28120212303</v>
+      </c>
+      <c r="B29" t="s">
+        <v>546</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28120203601</v>
+      </c>
+      <c r="B30" t="s">
+        <v>501</v>
+      </c>
+      <c r="C30">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28120204902</v>
+      </c>
+      <c r="B31" t="s">
+        <v>508</v>
+      </c>
+      <c r="C31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28120212001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>542</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28120203001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>497</v>
+      </c>
+      <c r="C33">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>28120208001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>530</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>28120207101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>28120208701</v>
+      </c>
+      <c r="B36" t="s">
+        <v>532</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>28120201501</v>
+      </c>
+      <c r="B37" t="s">
+        <v>494</v>
+      </c>
+      <c r="C37">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>28120203901</v>
+      </c>
+      <c r="B38" t="s">
+        <v>825</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>28120200301</v>
+      </c>
+      <c r="B39" t="s">
+        <v>801</v>
+      </c>
+      <c r="C39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>28120200201</v>
+      </c>
+      <c r="B40" t="s">
+        <v>873</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>28120209401</v>
+      </c>
+      <c r="B41" t="s">
+        <v>851</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>28120201702</v>
+      </c>
+      <c r="B42" t="s">
+        <v>874</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>28120203101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>875</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>28120202101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>876</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>28120202201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>815</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>28120208301</v>
+      </c>
+      <c r="B46" t="s">
+        <v>877</v>
+      </c>
+      <c r="C46">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>28120209001</v>
+      </c>
+      <c r="B47" t="s">
+        <v>878</v>
+      </c>
+      <c r="C47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>28120202002</v>
+      </c>
+      <c r="B48" t="s">
+        <v>813</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>28120201203</v>
+      </c>
+      <c r="B49" t="s">
+        <v>808</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>28120202501</v>
+      </c>
+      <c r="B50" t="s">
+        <v>816</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>28120209302</v>
+      </c>
+      <c r="B51" t="s">
+        <v>879</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>28120203303</v>
+      </c>
+      <c r="B52" t="s">
+        <v>822</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>28120211601</v>
+      </c>
+      <c r="B53" t="s">
+        <v>880</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>28120212103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>861</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>28120203702</v>
+      </c>
+      <c r="B55" t="s">
+        <v>824</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>28120211401</v>
+      </c>
+      <c r="B56" t="s">
+        <v>859</v>
+      </c>
+      <c r="C56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>28120204001</v>
+      </c>
+      <c r="B57" t="s">
+        <v>881</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>28120205801</v>
+      </c>
+      <c r="B58" t="s">
+        <v>882</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>28120201101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>805</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>28120200403</v>
+      </c>
+      <c r="B60" t="s">
+        <v>804</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>28120200401</v>
+      </c>
+      <c r="B61" t="s">
+        <v>802</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>28120201202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>807</v>
+      </c>
+      <c r="C62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>28120204702</v>
+      </c>
+      <c r="B63" t="s">
+        <v>829</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>28120205701</v>
+      </c>
+      <c r="B64" t="s">
+        <v>832</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>28120201102</v>
+      </c>
+      <c r="B65" t="s">
+        <v>883</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>28120207504</v>
+      </c>
+      <c r="B66" t="s">
+        <v>840</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>28120212107</v>
+      </c>
+      <c r="B67" t="s">
+        <v>863</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>28120207901</v>
+      </c>
+      <c r="B68" t="s">
+        <v>846</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>28120210301</v>
+      </c>
+      <c r="B69" t="s">
+        <v>855</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>28120201301</v>
+      </c>
+      <c r="B70" t="s">
+        <v>809</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>28120209701</v>
+      </c>
+      <c r="B71" t="s">
+        <v>884</v>
+      </c>
+      <c r="C71">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>28120204201</v>
+      </c>
+      <c r="B72" t="s">
+        <v>827</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>28120212205</v>
+      </c>
+      <c r="B73" t="s">
+        <v>864</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>28120212402</v>
+      </c>
+      <c r="B74" t="s">
+        <v>865</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>28120207703</v>
+      </c>
+      <c r="B75" t="s">
+        <v>845</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>28120206401</v>
+      </c>
+      <c r="B76" t="s">
+        <v>834</v>
+      </c>
+      <c r="C76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>28120203502</v>
+      </c>
+      <c r="B77" t="s">
+        <v>684</v>
+      </c>
+      <c r="C77">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>28120201901</v>
+      </c>
+      <c r="B78" t="s">
+        <v>811</v>
+      </c>
+      <c r="C78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>28120201302</v>
+      </c>
+      <c r="B79" t="s">
+        <v>810</v>
+      </c>
+      <c r="C79">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>28120210203</v>
+      </c>
+      <c r="B80" t="s">
+        <v>885</v>
+      </c>
+      <c r="C80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>28120203301</v>
+      </c>
+      <c r="B81" t="s">
+        <v>820</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>28120207203</v>
+      </c>
+      <c r="B82" t="s">
+        <v>837</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>28120207702</v>
+      </c>
+      <c r="B83" t="s">
+        <v>844</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>28120207401</v>
+      </c>
+      <c r="B84" t="s">
+        <v>839</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>28120202003</v>
+      </c>
+      <c r="B85" t="s">
+        <v>814</v>
+      </c>
+      <c r="C85">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>28120200903</v>
+      </c>
+      <c r="B86" t="s">
+        <v>886</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>28120201201</v>
+      </c>
+      <c r="B87" t="s">
+        <v>806</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>28120208803</v>
+      </c>
+      <c r="B88" t="s">
+        <v>887</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>28120203302</v>
+      </c>
+      <c r="B89" t="s">
+        <v>821</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>28120202601</v>
+      </c>
+      <c r="B90" t="s">
+        <v>817</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>28120207302</v>
+      </c>
+      <c r="B91" t="s">
+        <v>838</v>
+      </c>
+      <c r="C91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>28120207103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>836</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>28120200402</v>
+      </c>
+      <c r="B93" t="s">
+        <v>803</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>28120204401</v>
+      </c>
+      <c r="B94" t="s">
+        <v>888</v>
+      </c>
+      <c r="C94">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>28120211901</v>
+      </c>
+      <c r="B95" t="s">
+        <v>889</v>
+      </c>
+      <c r="C95">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>28120202701</v>
+      </c>
+      <c r="B96" t="s">
+        <v>890</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>28120211301</v>
+      </c>
+      <c r="B97" t="s">
+        <v>858</v>
+      </c>
+      <c r="C97">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>28120211501</v>
+      </c>
+      <c r="B98" t="s">
+        <v>860</v>
+      </c>
+      <c r="C98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>28120202802</v>
+      </c>
+      <c r="B99" t="s">
+        <v>891</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>28120209101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>534</v>
+      </c>
+      <c r="C100">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>28120205501</v>
+      </c>
+      <c r="B101" t="s">
+        <v>831</v>
+      </c>
+      <c r="C101">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>28120209901</v>
+      </c>
+      <c r="B102" t="s">
+        <v>538</v>
+      </c>
+      <c r="C102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>28120200901</v>
+      </c>
+      <c r="B103" t="s">
+        <v>489</v>
+      </c>
+      <c r="C103">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>28120210804</v>
+      </c>
+      <c r="B104" t="s">
+        <v>892</v>
+      </c>
+      <c r="C104">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>28120205202</v>
+      </c>
+      <c r="B105" t="s">
+        <v>893</v>
+      </c>
+      <c r="C105">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>28120207615</v>
+      </c>
+      <c r="B106" t="s">
+        <v>743</v>
+      </c>
+      <c r="C106">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>28120212206</v>
+      </c>
+      <c r="B107" t="s">
+        <v>750</v>
+      </c>
+      <c r="C107">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>28120212104</v>
+      </c>
+      <c r="B108" t="s">
+        <v>862</v>
+      </c>
+      <c r="C108">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>28120210205</v>
+      </c>
+      <c r="B109" t="s">
+        <v>854</v>
+      </c>
+      <c r="C109">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>28120210003</v>
+      </c>
+      <c r="B110" t="s">
+        <v>745</v>
+      </c>
+      <c r="C110">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>28120201205</v>
+      </c>
+      <c r="B111" t="s">
+        <v>894</v>
+      </c>
+      <c r="C111">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>28120201603</v>
+      </c>
+      <c r="B112" t="s">
+        <v>740</v>
+      </c>
+      <c r="C112">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>28120201803</v>
+      </c>
+      <c r="B113" t="s">
+        <v>895</v>
+      </c>
+      <c r="C113">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>28120202803</v>
+      </c>
+      <c r="B114" t="s">
+        <v>819</v>
+      </c>
+      <c r="C114">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>28120212403</v>
+      </c>
+      <c r="B115" t="s">
+        <v>866</v>
+      </c>
+      <c r="C115">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>28120201204</v>
+      </c>
+      <c r="B116" t="s">
+        <v>491</v>
+      </c>
+      <c r="C116">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>28120207607</v>
+      </c>
+      <c r="B117" t="s">
+        <v>794</v>
+      </c>
+      <c r="C117">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>28120203501</v>
+      </c>
+      <c r="B118" t="s">
+        <v>566</v>
+      </c>
+      <c r="C118">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>28120209602</v>
+      </c>
+      <c r="B119" t="s">
+        <v>639</v>
+      </c>
+      <c r="C119">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>28120209801</v>
+      </c>
+      <c r="B120" t="s">
+        <v>852</v>
+      </c>
+      <c r="C120">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>28120212201</v>
+      </c>
+      <c r="B121" t="s">
+        <v>630</v>
+      </c>
+      <c r="C121">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>28120212302</v>
+      </c>
+      <c r="B122" t="s">
+        <v>636</v>
+      </c>
+      <c r="C122">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>28120208103</v>
+      </c>
+      <c r="B123" t="s">
+        <v>604</v>
+      </c>
+      <c r="C123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>28120212301</v>
+      </c>
+      <c r="B124" t="s">
+        <v>635</v>
+      </c>
+      <c r="C124">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>28120212202</v>
+      </c>
+      <c r="B125" t="s">
+        <v>633</v>
+      </c>
+      <c r="C125">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>28120207202</v>
+      </c>
+      <c r="B126" t="s">
+        <v>592</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>28120211201</v>
+      </c>
+      <c r="B127" t="s">
+        <v>857</v>
+      </c>
+      <c r="C127">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>28120210601</v>
+      </c>
+      <c r="B128" t="s">
+        <v>619</v>
+      </c>
+      <c r="C128">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>28120200801</v>
+      </c>
+      <c r="B129" t="s">
+        <v>554</v>
+      </c>
+      <c r="C129">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>28120212101</v>
+      </c>
+      <c r="B130" t="s">
+        <v>629</v>
+      </c>
+      <c r="C130">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>28120207501</v>
+      </c>
+      <c r="B131" t="s">
+        <v>597</v>
+      </c>
+      <c r="C131">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>28120207502</v>
+      </c>
+      <c r="B132" t="s">
+        <v>599</v>
+      </c>
+      <c r="C132">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>28120207601</v>
+      </c>
+      <c r="B133" t="s">
+        <v>842</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>28120210210</v>
+      </c>
+      <c r="B134" t="s">
+        <v>613</v>
+      </c>
+      <c r="C134">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>28120210001</v>
+      </c>
+      <c r="B135" t="s">
+        <v>611</v>
+      </c>
+      <c r="C135">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>28120202401</v>
+      </c>
+      <c r="B136" t="s">
+        <v>770</v>
+      </c>
+      <c r="C136">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>28120205401</v>
+      </c>
+      <c r="B137" t="s">
+        <v>830</v>
+      </c>
+      <c r="C137">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>28120203801</v>
+      </c>
+      <c r="B138" t="s">
+        <v>571</v>
+      </c>
+      <c r="C138">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>28120209201</v>
+      </c>
+      <c r="B139" t="s">
+        <v>849</v>
+      </c>
+      <c r="C139">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>28120211701</v>
+      </c>
+      <c r="B140" t="s">
+        <v>625</v>
+      </c>
+      <c r="C140">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>28120207301</v>
+      </c>
+      <c r="B141" t="s">
+        <v>594</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>28120200502</v>
+      </c>
+      <c r="B142" t="s">
+        <v>552</v>
+      </c>
+      <c r="C142">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>28120204701</v>
+      </c>
+      <c r="B143" t="s">
+        <v>572</v>
+      </c>
+      <c r="C143">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>28120203701</v>
+      </c>
+      <c r="B144" t="s">
+        <v>823</v>
+      </c>
+      <c r="C144">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>28120200104</v>
+      </c>
+      <c r="B145" t="s">
+        <v>548</v>
+      </c>
+      <c r="C145">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>28120211801</v>
+      </c>
+      <c r="B146" t="s">
+        <v>627</v>
+      </c>
+      <c r="C146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>28120206801</v>
+      </c>
+      <c r="B147" t="s">
+        <v>582</v>
+      </c>
+      <c r="C147">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>28120205601</v>
+      </c>
+      <c r="B148" t="s">
+        <v>641</v>
+      </c>
+      <c r="C148">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>28120201601</v>
+      </c>
+      <c r="B149" t="s">
+        <v>558</v>
+      </c>
+      <c r="C149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>28120204901</v>
+      </c>
+      <c r="B150" t="s">
+        <v>574</v>
+      </c>
+      <c r="C150">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>28120202901</v>
+      </c>
+      <c r="B151" t="s">
+        <v>562</v>
+      </c>
+      <c r="C151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>28120206001</v>
+      </c>
+      <c r="B152" t="s">
+        <v>576</v>
+      </c>
+      <c r="C152">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>28120206903</v>
+      </c>
+      <c r="B153" t="s">
+        <v>585</v>
+      </c>
+      <c r="C153">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>28120208401</v>
+      </c>
+      <c r="B154" t="s">
+        <v>605</v>
+      </c>
+      <c r="C154">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>28120203403</v>
+      </c>
+      <c r="B155" t="s">
+        <v>564</v>
+      </c>
+      <c r="C155">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>28120208801</v>
+      </c>
+      <c r="B156" t="s">
+        <v>607</v>
+      </c>
+      <c r="C156">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>28120206301</v>
+      </c>
+      <c r="B157" t="s">
+        <v>833</v>
+      </c>
+      <c r="C157">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>28120210801</v>
+      </c>
+      <c r="B158" t="s">
+        <v>622</v>
+      </c>
+      <c r="C158">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>28120210401</v>
+      </c>
+      <c r="B159" t="s">
+        <v>615</v>
+      </c>
+      <c r="C159">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>28120208501</v>
+      </c>
+      <c r="B160" t="s">
+        <v>847</v>
+      </c>
+      <c r="C160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>28120201708</v>
+      </c>
+      <c r="B161" t="s">
+        <v>560</v>
+      </c>
+      <c r="C161">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>28120207001</v>
+      </c>
+      <c r="B162" t="s">
+        <v>587</v>
+      </c>
+      <c r="C162">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>28120208802</v>
+      </c>
+      <c r="B163" t="s">
+        <v>848</v>
+      </c>
+      <c r="C163">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>28120208901</v>
+      </c>
+      <c r="B164" t="s">
+        <v>609</v>
+      </c>
+      <c r="C164">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>28120201401</v>
+      </c>
+      <c r="B165" t="s">
+        <v>556</v>
+      </c>
+      <c r="C165">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>28120207201</v>
+      </c>
+      <c r="B166" t="s">
+        <v>589</v>
+      </c>
+      <c r="C166">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>28120212401</v>
+      </c>
+      <c r="B167" t="s">
+        <v>638</v>
+      </c>
+      <c r="C167">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>28120210501</v>
+      </c>
+      <c r="B168" t="s">
+        <v>856</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>28120206701</v>
+      </c>
+      <c r="B169" t="s">
+        <v>580</v>
+      </c>
+      <c r="C169">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>28120207701</v>
+      </c>
+      <c r="B170" t="s">
+        <v>601</v>
+      </c>
+      <c r="C170">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>28120204501</v>
+      </c>
+      <c r="B171" t="s">
+        <v>828</v>
+      </c>
+      <c r="C171">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>28120209301</v>
+      </c>
+      <c r="B172" t="s">
+        <v>850</v>
+      </c>
+      <c r="C172">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>28120207617</v>
+      </c>
+      <c r="B173" t="s">
+        <v>896</v>
+      </c>
+      <c r="C173">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>28120207608</v>
+      </c>
+      <c r="B174" t="s">
+        <v>897</v>
+      </c>
+      <c r="C174">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>28120207604</v>
+      </c>
+      <c r="B175" t="s">
+        <v>754</v>
+      </c>
+      <c r="C175">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E92BE8-221B-4455-A14C-CE95B9A6EBB6}">
   <dimension ref="A1:L137"/>
   <sheetViews>
@@ -24716,7 +29950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EABAF6-5BBD-4244-919B-2E1B6D009B31}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -24747,23 +29981,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>769</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -25204,12 +30438,12 @@
       <c r="G15" s="7"/>
       <c r="I15" s="28"/>
       <c r="J15" s="29"/>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="56" t="s">
         <v>766</v>
       </c>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -25219,12 +30453,12 @@
       <c r="G16" s="7"/>
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
-      <c r="L16" s="56" t="s">
+      <c r="L16" s="57" t="s">
         <v>767</v>
       </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
